--- a/capiq_data/in_process_data/IQ181176.xlsx
+++ b/capiq_data/in_process_data/IQ181176.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F302C-1024-4126-8042-B3EF729C7FCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C8E5F-70F7-4AF8-AAF2-CBB65C2A99AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"bd61c3b0-e606-4de2-8290-0c500454bf2a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"74333607-cf84-4cab-848b-75d6a90fdb49"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>133.69999999999999</v>
+        <v>57.616</v>
       </c>
       <c r="D2">
-        <v>979.4</v>
+        <v>679.50699999999995</v>
       </c>
       <c r="E2">
-        <v>386.7</v>
+        <v>303.3</v>
       </c>
       <c r="F2">
-        <v>441.6</v>
+        <v>297.63099999999997</v>
       </c>
       <c r="G2">
-        <v>1015.9</v>
+        <v>620</v>
       </c>
       <c r="H2">
-        <v>3419.7</v>
+        <v>1659.9</v>
       </c>
       <c r="I2">
-        <v>302.7</v>
+        <v>185.3</v>
       </c>
       <c r="J2">
-        <v>779.9</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>473.1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>834.8</v>
+        <v>1027.2</v>
       </c>
       <c r="O2">
-        <v>1957</v>
+        <v>1300.5999999999999</v>
       </c>
       <c r="P2">
-        <v>880.3</v>
+        <v>715.9</v>
       </c>
       <c r="Q2">
-        <v>27.2</v>
+        <v>-12.061</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="S2">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="T2">
-        <v>1462.7</v>
+        <v>359.3</v>
       </c>
       <c r="U2">
-        <v>50.8</v>
+        <v>23.9</v>
       </c>
       <c r="V2">
-        <v>242.3</v>
+        <v>153.298</v>
       </c>
       <c r="W2">
-        <v>-34.5</v>
+        <v>-13.026</v>
       </c>
       <c r="X2">
-        <v>-148.4</v>
+        <v>-142.74199999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>133.69999999999999</v>
+        <v>57.616</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>76.8</v>
+        <v>26.585999999999999</v>
       </c>
       <c r="D3">
-        <v>782.8</v>
+        <v>499.447</v>
       </c>
       <c r="E3">
-        <v>326.8</v>
+        <v>264.11799999999999</v>
       </c>
       <c r="F3">
-        <v>328.2</v>
+        <v>169.62899999999999</v>
       </c>
       <c r="G3">
-        <v>1015.6</v>
+        <v>601.03800000000001</v>
       </c>
       <c r="H3">
-        <v>3477.6</v>
+        <v>1689.126</v>
       </c>
       <c r="I3">
-        <v>286.8</v>
+        <v>162.24199999999999</v>
       </c>
       <c r="J3">
-        <v>775.7</v>
+        <v>454.02199999999999</v>
       </c>
       <c r="K3">
-        <v>94.2</v>
+        <v>252.947</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-220.17500000000001</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>806.7</v>
+        <v>734.84299999999996</v>
       </c>
       <c r="O3">
-        <v>1901.1</v>
+        <v>1290.98</v>
       </c>
       <c r="P3">
-        <v>970.2</v>
+        <v>792.755</v>
       </c>
       <c r="Q3">
-        <v>-10.199999999999999</v>
+        <v>7.4020000000000001</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1576.5</v>
+        <v>398.14600000000002</v>
       </c>
       <c r="U3">
-        <v>40.6</v>
+        <v>31.292000000000002</v>
       </c>
       <c r="V3">
-        <v>-23.1</v>
+        <v>-39.247</v>
       </c>
       <c r="W3">
-        <v>-37.200000000000003</v>
+        <v>-13.693</v>
       </c>
       <c r="X3">
-        <v>23.2</v>
+        <v>67.344999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>76.8</v>
+        <v>26.585999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>73.599999999999994</v>
+        <v>26.635999999999999</v>
       </c>
       <c r="D4">
-        <v>883.7</v>
+        <v>531.16800000000001</v>
       </c>
       <c r="E4">
-        <v>342.6</v>
+        <v>248.64099999999999</v>
       </c>
       <c r="F4">
-        <v>350.7</v>
+        <v>180.684</v>
       </c>
       <c r="G4">
-        <v>1079.5999999999999</v>
+        <v>601.45299999999997</v>
       </c>
       <c r="H4">
-        <v>3589.4</v>
+        <v>1651.1420000000001</v>
       </c>
       <c r="I4">
-        <v>301.8</v>
+        <v>169.93</v>
       </c>
       <c r="J4">
-        <v>781.2</v>
+        <v>454.298</v>
       </c>
       <c r="K4">
-        <v>108.2</v>
+        <v>221.761</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>846.5</v>
+        <v>709.42100000000005</v>
       </c>
       <c r="O4">
-        <v>1947.3</v>
+        <v>1280.895</v>
       </c>
       <c r="P4">
-        <v>990.6</v>
+        <v>758.13800000000003</v>
       </c>
       <c r="Q4">
-        <v>7.3</v>
+        <v>16.192</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1642.1</v>
+        <v>370.24700000000001</v>
       </c>
       <c r="U4">
-        <v>47.9</v>
+        <v>47.484000000000002</v>
       </c>
       <c r="V4">
-        <v>59.4</v>
+        <v>86.087999999999994</v>
       </c>
       <c r="W4">
-        <v>-37.1</v>
+        <v>-13.776999999999999</v>
       </c>
       <c r="X4">
-        <v>-45.6</v>
+        <v>-39.914000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>73.599999999999994</v>
+        <v>26.635999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>34.311999999999998</v>
       </c>
       <c r="D5">
-        <v>920.4</v>
+        <v>535.90099999999995</v>
       </c>
       <c r="E5">
-        <v>391.7</v>
+        <v>271.40499999999997</v>
       </c>
       <c r="F5">
-        <v>364.5</v>
+        <v>189.072</v>
       </c>
       <c r="G5">
-        <v>1163.3</v>
+        <v>619.87300000000005</v>
       </c>
       <c r="H5">
-        <v>3714.6</v>
+        <v>1730.1179999999999</v>
       </c>
       <c r="I5">
-        <v>303.2</v>
+        <v>160.5</v>
       </c>
       <c r="J5">
-        <v>1031.7</v>
+        <v>454.21199999999999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>326.286</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>639.5</v>
+        <v>737.99599999999998</v>
       </c>
       <c r="O5">
-        <v>1994.2</v>
+        <v>1304.819</v>
       </c>
       <c r="P5">
-        <v>1032</v>
+        <v>787.39</v>
       </c>
       <c r="Q5">
-        <v>4.3</v>
+        <v>-15.35</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1720.4</v>
+        <v>425.29899999999998</v>
       </c>
       <c r="U5">
-        <v>52.2</v>
+        <v>32.134</v>
       </c>
       <c r="V5">
-        <v>49.4</v>
+        <v>-4.7169999999999996</v>
       </c>
       <c r="W5">
-        <v>-37.1</v>
+        <v>-13.824</v>
       </c>
       <c r="X5">
-        <v>18.5</v>
+        <v>17.718</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>92</v>
+        <v>34.311999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>131.80000000000001</v>
+        <v>59.066000000000003</v>
       </c>
       <c r="D6">
-        <v>1110.7</v>
+        <v>651.98400000000004</v>
       </c>
       <c r="E6">
-        <v>427</v>
+        <v>295.5</v>
       </c>
       <c r="F6">
-        <v>479.1</v>
+        <v>259.01499999999999</v>
       </c>
       <c r="G6">
-        <v>1222.9000000000001</v>
+        <v>635.79999999999995</v>
       </c>
       <c r="H6">
-        <v>4087.8</v>
+        <v>1772</v>
       </c>
       <c r="I6">
-        <v>366.6</v>
+        <v>184</v>
       </c>
       <c r="J6">
-        <v>1029.7</v>
+        <v>454.1</v>
       </c>
       <c r="K6">
-        <v>217</v>
+        <v>215.8</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>993.3</v>
+        <v>713.7</v>
       </c>
       <c r="O6">
-        <v>2469.3000000000002</v>
+        <v>1308.9000000000001</v>
       </c>
       <c r="P6">
-        <v>1252.0999999999999</v>
+        <v>670.9</v>
       </c>
       <c r="Q6">
-        <v>1.7</v>
+        <v>-0.84399999999999997</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="S6">
-        <v>9000</v>
+        <v>8493</v>
       </c>
       <c r="T6">
-        <v>1618.5</v>
+        <v>463.1</v>
       </c>
       <c r="U6">
-        <v>53.9</v>
+        <v>31.3</v>
       </c>
       <c r="V6">
-        <v>254.3</v>
+        <v>162.376</v>
       </c>
       <c r="W6">
-        <v>-37.1</v>
+        <v>-13.805999999999999</v>
       </c>
       <c r="X6">
-        <v>191.7</v>
+        <v>-130.54900000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>131.80000000000001</v>
+        <v>59.066000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>74.5</v>
+        <v>33.841000000000001</v>
       </c>
       <c r="D7">
-        <v>906.7</v>
+        <v>518.90599999999995</v>
       </c>
       <c r="E7">
-        <v>381.1</v>
+        <v>269.89400000000001</v>
       </c>
       <c r="F7">
-        <v>355.3</v>
+        <v>185.251</v>
       </c>
       <c r="G7">
-        <v>1192.8</v>
+        <v>645.23900000000003</v>
       </c>
       <c r="H7">
-        <v>4079.7</v>
+        <v>1818.6849999999999</v>
       </c>
       <c r="I7">
-        <v>342.3</v>
+        <v>184.26900000000001</v>
       </c>
       <c r="J7">
-        <v>1028.7</v>
+        <v>454.13499999999999</v>
       </c>
       <c r="K7">
-        <v>281.2</v>
+        <v>295.142</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>959.9</v>
+        <v>739.98400000000004</v>
       </c>
       <c r="O7">
-        <v>2387.1</v>
+        <v>1330.5519999999999</v>
       </c>
       <c r="P7">
-        <v>1311.8</v>
+        <v>755.67100000000005</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>30.85</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1692.6</v>
+        <v>488.13299999999998</v>
       </c>
       <c r="U7">
-        <v>54.4</v>
+        <v>62.180999999999997</v>
       </c>
       <c r="V7">
-        <v>22.5</v>
+        <v>-14.814</v>
       </c>
       <c r="W7">
-        <v>-41.4</v>
+        <v>-14.536</v>
       </c>
       <c r="X7">
-        <v>-9.3000000000000007</v>
+        <v>80.549000000000007</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>74.5</v>
+        <v>33.841000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>80.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>378</v>
+        <v>277.43299999999999</v>
       </c>
       <c r="F8">
-        <v>388.4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1167.2</v>
+        <v>638.80799999999999</v>
       </c>
       <c r="H8">
-        <v>3965.7</v>
+        <v>1850.3040000000001</v>
       </c>
       <c r="I8">
-        <v>321.89999999999998</v>
+        <v>165.53899999999999</v>
       </c>
       <c r="J8">
-        <v>1027.7</v>
+        <v>453.98899999999998</v>
       </c>
       <c r="K8">
-        <v>242.2</v>
+        <v>270.80099999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>900.3</v>
+        <v>712.43499999999995</v>
       </c>
       <c r="O8">
-        <v>2326.8000000000002</v>
+        <v>1307.896</v>
       </c>
       <c r="P8">
-        <v>1272.0999999999999</v>
+        <v>731.96199999999999</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1638.9</v>
+        <v>542.40800000000002</v>
       </c>
       <c r="U8">
-        <v>61.4</v>
+        <v>40.158000000000001</v>
       </c>
       <c r="V8">
-        <v>121.9</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>80.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>104.4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>977.7</v>
+        <v>477.31900000000002</v>
       </c>
       <c r="E9">
-        <v>411.2</v>
+        <v>293.34899999999999</v>
       </c>
       <c r="F9">
-        <v>391.7</v>
+        <v>174.666</v>
       </c>
       <c r="G9">
-        <v>1219.4000000000001</v>
+        <v>663.55899999999997</v>
       </c>
       <c r="H9">
-        <v>4057</v>
+        <v>1905.192</v>
       </c>
       <c r="I9">
-        <v>317.5</v>
+        <v>176.46899999999999</v>
       </c>
       <c r="J9">
-        <v>1026.2</v>
+        <v>453.96100000000001</v>
       </c>
       <c r="K9">
-        <v>229</v>
+        <v>270.23399999999998</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>902.6</v>
+        <v>722.28300000000002</v>
       </c>
       <c r="O9">
-        <v>2333</v>
+        <v>1320.309</v>
       </c>
       <c r="P9">
-        <v>1257.5</v>
+        <v>725.13800000000003</v>
       </c>
       <c r="Q9">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1724</v>
+        <v>584.88300000000004</v>
       </c>
       <c r="U9">
-        <v>72.2</v>
+        <v>23.329000000000001</v>
       </c>
       <c r="V9">
-        <v>111.9</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-41.2</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-76.7</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>104.4</v>
+        <v>35.177</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>148.5</v>
+        <v>77.168999999999997</v>
       </c>
       <c r="D10">
-        <v>1145.8</v>
+        <v>624.96100000000001</v>
       </c>
       <c r="E10">
-        <v>465.9</v>
+        <v>303.3</v>
       </c>
       <c r="F10">
-        <v>482.4</v>
+        <v>271.29199999999997</v>
       </c>
       <c r="G10">
-        <v>1285.4000000000001</v>
+        <v>724.6</v>
       </c>
       <c r="H10">
-        <v>4165.3999999999996</v>
+        <v>1930.8</v>
       </c>
       <c r="I10">
-        <v>375.8</v>
+        <v>175.1</v>
       </c>
       <c r="J10">
-        <v>779.2</v>
+        <v>450.9</v>
       </c>
       <c r="K10">
-        <v>140.30000000000001</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1187.5999999999999</v>
+        <v>673.3</v>
       </c>
       <c r="O10">
-        <v>2465.1999999999998</v>
+        <v>1319.6</v>
       </c>
       <c r="P10">
-        <v>1171.9000000000001</v>
+        <v>599.5</v>
       </c>
       <c r="Q10">
-        <v>6.8</v>
+        <v>24.001999999999999</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="S10">
         <v>9000</v>
       </c>
       <c r="T10">
-        <v>1700.2</v>
+        <v>611.20000000000005</v>
       </c>
       <c r="U10">
-        <v>79</v>
+        <v>47.3</v>
       </c>
       <c r="V10">
-        <v>198.7</v>
+        <v>170.29900000000001</v>
       </c>
       <c r="W10">
-        <v>-41.1</v>
+        <v>-14.67</v>
       </c>
       <c r="X10">
-        <v>-147.30000000000001</v>
+        <v>-136.173</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>148.5</v>
+        <v>77.168999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>35.139000000000003</v>
       </c>
       <c r="D11">
-        <v>934.4</v>
+        <v>485.447</v>
       </c>
       <c r="E11">
-        <v>403.9</v>
+        <v>304.53199999999998</v>
       </c>
       <c r="F11">
-        <v>361.7</v>
+        <v>186.13</v>
       </c>
       <c r="G11">
-        <v>1211.5</v>
+        <v>711.19600000000003</v>
       </c>
       <c r="H11">
-        <v>4086.1</v>
+        <v>1984.021</v>
       </c>
       <c r="I11">
-        <v>340.2</v>
+        <v>187.03299999999999</v>
       </c>
       <c r="J11">
-        <v>776</v>
+        <v>454.113</v>
       </c>
       <c r="K11">
-        <v>201.1</v>
+        <v>221.76</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.4</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="N11">
-        <v>1115.5</v>
+        <v>669.32</v>
       </c>
       <c r="O11">
-        <v>2361.3000000000002</v>
+        <v>1344.3969999999999</v>
       </c>
       <c r="P11">
-        <v>1229.8</v>
+        <v>676.37900000000002</v>
       </c>
       <c r="Q11">
-        <v>-10.4</v>
+        <v>-24.45</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1724.8</v>
+        <v>639.62400000000002</v>
       </c>
       <c r="U11">
-        <v>68.599999999999994</v>
+        <v>21.001999999999999</v>
       </c>
       <c r="V11">
-        <v>31.6</v>
+        <v>-32.109000000000002</v>
       </c>
       <c r="W11">
-        <v>-45.1</v>
+        <v>-15.414999999999999</v>
       </c>
       <c r="X11">
-        <v>-34.4</v>
+        <v>40.695999999999998</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>76</v>
+        <v>35.139000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>78.599999999999994</v>
+        <v>39.959000000000003</v>
       </c>
       <c r="D12">
-        <v>1002.6</v>
+        <v>527.91200000000003</v>
       </c>
       <c r="E12">
-        <v>399.9</v>
+        <v>325.70999999999998</v>
       </c>
       <c r="F12">
-        <v>394.4</v>
+        <v>197.774</v>
       </c>
       <c r="G12">
-        <v>1217.5</v>
+        <v>773.125</v>
       </c>
       <c r="H12">
-        <v>4208.8</v>
+        <v>2035.895</v>
       </c>
       <c r="I12">
-        <v>322.10000000000002</v>
+        <v>201.874</v>
       </c>
       <c r="J12">
-        <v>774.4</v>
+        <v>451.529</v>
       </c>
       <c r="K12">
-        <v>299.10000000000002</v>
+        <v>169.893</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1226.2</v>
+        <v>631.59699999999998</v>
       </c>
       <c r="O12">
-        <v>2475.1</v>
+        <v>1314.683</v>
       </c>
       <c r="P12">
-        <v>1326.3</v>
+        <v>621.86699999999996</v>
       </c>
       <c r="Q12">
-        <v>3.5</v>
+        <v>2.1120000000000001</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1733.7</v>
+        <v>721.21199999999999</v>
       </c>
       <c r="U12">
-        <v>72.099999999999994</v>
+        <v>24.994</v>
       </c>
       <c r="V12">
-        <v>101.1</v>
+        <v>37.115000000000002</v>
       </c>
       <c r="W12">
-        <v>-45</v>
+        <v>-15.311999999999999</v>
       </c>
       <c r="X12">
-        <v>40</v>
+        <v>-73.203999999999994</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>78.599999999999994</v>
+        <v>39.959000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>104.4</v>
+        <v>51.305999999999997</v>
       </c>
       <c r="D13">
-        <v>1016.4</v>
+        <v>557.61199999999997</v>
       </c>
       <c r="E13">
-        <v>462.4</v>
+        <v>283.69499999999999</v>
       </c>
       <c r="F13">
-        <v>407.6</v>
+        <v>212.48099999999999</v>
       </c>
       <c r="G13">
-        <v>1370.9</v>
+        <v>713.18899999999996</v>
       </c>
       <c r="H13">
-        <v>4353</v>
+        <v>2019.08</v>
       </c>
       <c r="I13">
-        <v>324.7</v>
+        <v>167.92599999999999</v>
       </c>
       <c r="J13">
-        <v>1018.6</v>
+        <v>450.01100000000002</v>
       </c>
       <c r="K13">
-        <v>107.9</v>
+        <v>212.71799999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1054.3</v>
+        <v>649.08699999999999</v>
       </c>
       <c r="O13">
-        <v>2555.5</v>
+        <v>1299.643</v>
       </c>
       <c r="P13">
-        <v>1378.6</v>
+        <v>664.63400000000001</v>
       </c>
       <c r="Q13">
-        <v>74.7</v>
+        <v>-12.81</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1797.5</v>
+        <v>719.43700000000001</v>
       </c>
       <c r="U13">
-        <v>146.80000000000001</v>
+        <v>12.183999999999999</v>
       </c>
       <c r="V13">
-        <v>94.7</v>
+        <v>9.3819999999999997</v>
       </c>
       <c r="W13">
-        <v>-44.9</v>
+        <v>-16.742999999999999</v>
       </c>
       <c r="X13">
-        <v>13.3</v>
+        <v>34.923000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>104.4</v>
+        <v>51.305999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>84.396000000000001</v>
       </c>
       <c r="D14">
-        <v>1170</v>
+        <v>698.62699999999995</v>
       </c>
       <c r="E14">
-        <v>495.5</v>
+        <v>344.7</v>
       </c>
       <c r="F14">
-        <v>502.2</v>
+        <v>302.214</v>
       </c>
       <c r="G14">
-        <v>1370.2</v>
+        <v>759.4</v>
       </c>
       <c r="H14">
-        <v>4449.7</v>
+        <v>2145.5</v>
       </c>
       <c r="I14">
-        <v>387.3</v>
+        <v>178.8</v>
       </c>
       <c r="J14">
-        <v>1019</v>
+        <v>448.6</v>
       </c>
       <c r="K14">
-        <v>211.6</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1063.0999999999999</v>
+        <v>710</v>
       </c>
       <c r="O14">
-        <v>2502</v>
+        <v>1368.1</v>
       </c>
       <c r="P14">
-        <v>1233.0999999999999</v>
+        <v>630.9</v>
       </c>
       <c r="Q14">
-        <v>-83.8</v>
+        <v>12.948</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="S14">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="T14">
-        <v>1947.7</v>
+        <v>777.4</v>
       </c>
       <c r="U14">
-        <v>63</v>
+        <v>25.1</v>
       </c>
       <c r="V14">
-        <v>237.8</v>
+        <v>182.81200000000001</v>
       </c>
       <c r="W14">
-        <v>-44.9</v>
+        <v>-16.63</v>
       </c>
       <c r="X14">
-        <v>-264.8</v>
+        <v>-140.11500000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>130</v>
+        <v>84.396000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>82.5</v>
+        <v>38.106000000000002</v>
       </c>
       <c r="D15">
-        <v>993.4</v>
+        <v>572.36199999999997</v>
       </c>
       <c r="E15">
-        <v>428</v>
+        <v>325.387</v>
       </c>
       <c r="F15">
-        <v>391.5</v>
+        <v>221.68600000000001</v>
       </c>
       <c r="G15">
-        <v>1340.1</v>
+        <v>739.55200000000002</v>
       </c>
       <c r="H15">
-        <v>4429.7</v>
+        <v>2164.4050000000002</v>
       </c>
       <c r="I15">
-        <v>348</v>
+        <v>153.577</v>
       </c>
       <c r="J15">
-        <v>1016.6</v>
+        <v>450.024</v>
       </c>
       <c r="K15">
-        <v>280.2</v>
+        <v>174.64500000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.4</v>
+        <v>-0.13</v>
       </c>
       <c r="N15">
-        <v>1012.1</v>
+        <v>632.93799999999999</v>
       </c>
       <c r="O15">
-        <v>2442.3000000000002</v>
+        <v>1302.8040000000001</v>
       </c>
       <c r="P15">
-        <v>1298.5999999999999</v>
+        <v>642.41</v>
       </c>
       <c r="Q15">
-        <v>26.4</v>
+        <v>-7.4059999999999997</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1987.4</v>
+        <v>861.601</v>
       </c>
       <c r="U15">
-        <v>89.4</v>
+        <v>17.734999999999999</v>
       </c>
       <c r="V15">
-        <v>76.7</v>
+        <v>7.6870000000000003</v>
       </c>
       <c r="W15">
-        <v>-48.6</v>
+        <v>-19.236000000000001</v>
       </c>
       <c r="X15">
-        <v>-28.6</v>
+        <v>-13.994</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>82.5</v>
+        <v>38.106000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>84.5</v>
+        <v>42.853000000000002</v>
       </c>
       <c r="D16">
-        <v>1033.4000000000001</v>
+        <v>596.16399999999999</v>
       </c>
       <c r="E16">
-        <v>417.1</v>
+        <v>313.60700000000003</v>
       </c>
       <c r="F16">
-        <v>412.5</v>
+        <v>231.92599999999999</v>
       </c>
       <c r="G16">
-        <v>1324.7</v>
+        <v>741.12199999999996</v>
       </c>
       <c r="H16">
-        <v>4409.3</v>
+        <v>2134.181</v>
       </c>
       <c r="I16">
-        <v>335.8</v>
+        <v>166.18799999999999</v>
       </c>
       <c r="J16">
-        <v>1016.8</v>
+        <v>495.88400000000001</v>
       </c>
       <c r="K16">
-        <v>307.10000000000002</v>
+        <v>134.05799999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1002.8</v>
+        <v>608.38</v>
       </c>
       <c r="O16">
-        <v>2429.4</v>
+        <v>1309.1679999999999</v>
       </c>
       <c r="P16">
-        <v>1325.2</v>
+        <v>650.29399999999998</v>
       </c>
       <c r="Q16">
-        <v>-8</v>
+        <v>-1.61</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1979.9</v>
+        <v>825.01300000000003</v>
       </c>
       <c r="U16">
-        <v>81.400000000000006</v>
+        <v>16.125</v>
       </c>
       <c r="V16">
-        <v>105.4</v>
+        <v>71.846000000000004</v>
       </c>
       <c r="W16">
-        <v>-48.1</v>
+        <v>-19.324999999999999</v>
       </c>
       <c r="X16">
-        <v>-85.2</v>
+        <v>-53.192</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>84.5</v>
+        <v>42.853000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>122.9</v>
+        <v>46.195999999999998</v>
       </c>
       <c r="D17">
-        <v>1042.8</v>
+        <v>613.54399999999998</v>
       </c>
       <c r="E17">
-        <v>476.8</v>
+        <v>325.67500000000001</v>
       </c>
       <c r="F17">
-        <v>420.1</v>
+        <v>239.15899999999999</v>
       </c>
       <c r="G17">
-        <v>1408.8</v>
+        <v>774.49900000000002</v>
       </c>
       <c r="H17">
-        <v>4472.1000000000004</v>
+        <v>2157.8980000000001</v>
       </c>
       <c r="I17">
-        <v>338.8</v>
+        <v>161.172</v>
       </c>
       <c r="J17">
-        <v>1014.3</v>
+        <v>496.274</v>
       </c>
       <c r="K17">
-        <v>352.2</v>
+        <v>174.96899999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1077.5999999999999</v>
+        <v>618.46</v>
       </c>
       <c r="O17">
-        <v>2502.1</v>
+        <v>1326.2460000000001</v>
       </c>
       <c r="P17">
-        <v>1367.7</v>
+        <v>675.34</v>
       </c>
       <c r="Q17">
-        <v>12.4</v>
+        <v>9.7840000000000007</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1970</v>
+        <v>831.65200000000004</v>
       </c>
       <c r="U17">
-        <v>93.8</v>
+        <v>25.908999999999999</v>
       </c>
       <c r="V17">
-        <v>93.7</v>
+        <v>44.613999999999997</v>
       </c>
       <c r="W17">
-        <v>-48</v>
+        <v>-19.193999999999999</v>
       </c>
       <c r="X17">
-        <v>-51.8</v>
+        <v>-16.538</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>122.9</v>
+        <v>46.195999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>148</v>
+        <v>87.344999999999999</v>
       </c>
       <c r="D18">
-        <v>1173.5999999999999</v>
+        <v>744.13099999999997</v>
       </c>
       <c r="E18">
-        <v>493.6</v>
+        <v>407.6</v>
       </c>
       <c r="F18">
-        <v>506.1</v>
+        <v>315.12900000000002</v>
       </c>
       <c r="G18">
-        <v>1416.2</v>
+        <v>864</v>
       </c>
       <c r="H18">
-        <v>4414.3</v>
+        <v>2369.6</v>
       </c>
       <c r="I18">
-        <v>372.1</v>
+        <v>195.1</v>
       </c>
       <c r="J18">
-        <v>1014.1</v>
+        <v>465</v>
       </c>
       <c r="K18">
-        <v>269.60000000000002</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1122</v>
+        <v>772.7</v>
       </c>
       <c r="O18">
-        <v>2604.9</v>
+        <v>1448.9</v>
       </c>
       <c r="P18">
-        <v>1284.9000000000001</v>
+        <v>650</v>
       </c>
       <c r="Q18">
-        <v>-16.5</v>
+        <v>44.432000000000002</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="S18">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="T18">
-        <v>1809.4</v>
+        <v>920.7</v>
       </c>
       <c r="U18">
-        <v>77.3</v>
+        <v>70.3</v>
       </c>
       <c r="V18">
-        <v>227.8</v>
+        <v>225.35300000000001</v>
       </c>
       <c r="W18">
-        <v>-47.7</v>
+        <v>-19.145</v>
       </c>
       <c r="X18">
-        <v>-183.3</v>
+        <v>-94.676000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>148</v>
+        <v>87.344999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>70.5</v>
+        <v>36.034999999999997</v>
       </c>
       <c r="D19">
-        <v>1010.4</v>
+        <v>603.62300000000005</v>
       </c>
       <c r="E19">
-        <v>384.1</v>
+        <v>362.79</v>
       </c>
       <c r="F19">
-        <v>389.7</v>
+        <v>228.16800000000001</v>
       </c>
       <c r="G19">
-        <v>1304.7</v>
+        <v>775.48400000000004</v>
       </c>
       <c r="H19">
-        <v>4197.5</v>
+        <v>2276.6750000000002</v>
       </c>
       <c r="I19">
-        <v>334.6</v>
+        <v>179.97</v>
       </c>
       <c r="J19">
-        <v>806.8</v>
+        <v>295.524</v>
       </c>
       <c r="K19">
-        <v>310.5</v>
+        <v>173.52799999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.2</v>
+        <v>-0.121</v>
       </c>
       <c r="N19">
-        <v>1221</v>
+        <v>850.67399999999998</v>
       </c>
       <c r="O19">
-        <v>2493.6</v>
+        <v>1339.922</v>
       </c>
       <c r="P19">
-        <v>1323</v>
+        <v>673.80899999999997</v>
       </c>
       <c r="Q19">
-        <v>4.5</v>
+        <v>-45.941000000000003</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1703.9</v>
+        <v>936.75300000000004</v>
       </c>
       <c r="U19">
-        <v>81.8</v>
+        <v>24.393999999999998</v>
       </c>
       <c r="V19">
-        <v>95.9</v>
+        <v>-2.93</v>
       </c>
       <c r="W19">
-        <v>-51.3</v>
+        <v>-21.713999999999999</v>
       </c>
       <c r="X19">
-        <v>-64.2</v>
+        <v>-27.989000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>70.5</v>
+        <v>36.034999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>84.3</v>
+        <v>42.793999999999997</v>
       </c>
       <c r="D20">
-        <v>1024.0999999999999</v>
+        <v>628.57100000000003</v>
       </c>
       <c r="E20">
-        <v>390.6</v>
+        <v>328.11700000000002</v>
       </c>
       <c r="F20">
-        <v>404</v>
+        <v>241.346</v>
       </c>
       <c r="G20">
-        <v>1358.9</v>
+        <v>739.05399999999997</v>
       </c>
       <c r="H20">
-        <v>4378.3999999999996</v>
+        <v>2186.663</v>
       </c>
       <c r="I20">
-        <v>337.8</v>
+        <v>167.816</v>
       </c>
       <c r="J20">
-        <v>807.9</v>
+        <v>271.202</v>
       </c>
       <c r="K20">
-        <v>416.7</v>
+        <v>203.99600000000001</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1338.8</v>
+        <v>882.6</v>
       </c>
       <c r="O20">
-        <v>2643.1</v>
+        <v>1351.547</v>
       </c>
       <c r="P20">
-        <v>1430.5</v>
+        <v>708.85699999999997</v>
       </c>
       <c r="Q20">
-        <v>7.7</v>
+        <v>-4.298</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1735.3</v>
+        <v>835.11599999999999</v>
       </c>
       <c r="U20">
-        <v>89.5</v>
+        <v>20.096</v>
       </c>
       <c r="V20">
-        <v>90</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="W20">
-        <v>-51.2</v>
+        <v>-21.623000000000001</v>
       </c>
       <c r="X20">
-        <v>53.9</v>
+        <v>-52.758000000000003</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>84.3</v>
+        <v>42.793999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>97.6</v>
+        <v>47.97</v>
       </c>
       <c r="D21">
-        <v>1059.9000000000001</v>
+        <v>622.73099999999999</v>
       </c>
       <c r="E21">
-        <v>422.9</v>
+        <v>321.73500000000001</v>
       </c>
       <c r="F21">
-        <v>425.3</v>
+        <v>243.33699999999999</v>
       </c>
       <c r="G21">
-        <v>1374.5</v>
+        <v>774.63099999999997</v>
       </c>
       <c r="H21">
-        <v>4490.7</v>
+        <v>2271.6419999999998</v>
       </c>
       <c r="I21">
-        <v>336.1</v>
+        <v>170.03399999999999</v>
       </c>
       <c r="J21">
-        <v>807.2</v>
+        <v>268.94200000000001</v>
       </c>
       <c r="K21">
-        <v>481.2</v>
+        <v>208.16300000000001</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1404.6</v>
+        <v>897.94399999999996</v>
       </c>
       <c r="O21">
-        <v>2728.5</v>
+        <v>1412.819</v>
       </c>
       <c r="P21">
-        <v>1492.2</v>
+        <v>710.98699999999997</v>
       </c>
       <c r="Q21">
-        <v>18.899999999999999</v>
+        <v>26.021000000000001</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1762.2</v>
+        <v>858.82299999999998</v>
       </c>
       <c r="U21">
-        <v>108.4</v>
+        <v>46.116999999999997</v>
       </c>
       <c r="V21">
-        <v>130.69999999999999</v>
+        <v>67.284999999999997</v>
       </c>
       <c r="W21">
-        <v>-51.2</v>
+        <v>-21.484000000000002</v>
       </c>
       <c r="X21">
-        <v>23.6</v>
+        <v>-26.994</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>97.6</v>
+        <v>47.97</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>149.19999999999999</v>
+        <v>88.100999999999999</v>
       </c>
       <c r="D22">
-        <v>1201.9000000000001</v>
+        <v>737.07399999999996</v>
       </c>
       <c r="E22">
-        <v>455.2</v>
+        <v>369.3</v>
       </c>
       <c r="F22">
-        <v>522.29999999999995</v>
+        <v>323.74900000000002</v>
       </c>
       <c r="G22">
-        <v>1357.4</v>
+        <v>800.2</v>
       </c>
       <c r="H22">
-        <v>4472.6000000000004</v>
+        <v>2272.6999999999998</v>
       </c>
       <c r="I22">
-        <v>411.9</v>
+        <v>198.2</v>
       </c>
       <c r="J22">
-        <v>1051.4000000000001</v>
+        <v>463.9</v>
       </c>
       <c r="K22">
-        <v>139.5</v>
+        <v>105.4</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1238.5999999999999</v>
+        <v>699</v>
       </c>
       <c r="O22">
-        <v>2785.7</v>
+        <v>1443.6</v>
       </c>
       <c r="P22">
-        <v>1395</v>
+        <v>579.1</v>
       </c>
       <c r="Q22">
-        <v>4.2</v>
+        <v>-15.782</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="S22">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="T22">
-        <v>1686.9</v>
+        <v>829.1</v>
       </c>
       <c r="U22">
-        <v>112.6</v>
+        <v>30.3</v>
       </c>
       <c r="V22">
-        <v>273.39999999999998</v>
+        <v>198.33500000000001</v>
       </c>
       <c r="W22">
-        <v>-51.2</v>
+        <v>-21.379000000000001</v>
       </c>
       <c r="X22">
-        <v>-212.9</v>
+        <v>-186.65899999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>149.19999999999999</v>
+        <v>88.100999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>93.4</v>
+        <v>14.388</v>
       </c>
       <c r="D23">
-        <v>1030.2</v>
+        <v>609.70100000000002</v>
       </c>
       <c r="E23">
-        <v>371.2</v>
+        <v>345.35300000000001</v>
       </c>
       <c r="F23">
-        <v>405</v>
+        <v>239.285</v>
       </c>
       <c r="G23">
-        <v>1306.2</v>
+        <v>785.66600000000005</v>
       </c>
       <c r="H23">
-        <v>4400.1000000000004</v>
+        <v>2280.9259999999999</v>
       </c>
       <c r="I23">
-        <v>336.7</v>
+        <v>170.06800000000001</v>
       </c>
       <c r="J23">
-        <v>1056.3</v>
+        <v>467.65899999999999</v>
       </c>
       <c r="K23">
-        <v>389.6</v>
+        <v>132.96799999999999</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-201.7</v>
+        <v>-170.33500000000001</v>
       </c>
       <c r="N23">
-        <v>1092.2</v>
+        <v>680.10400000000004</v>
       </c>
       <c r="O23">
-        <v>2673.2</v>
+        <v>1417.7239999999999</v>
       </c>
       <c r="P23">
-        <v>1446.5</v>
+        <v>630.55999999999995</v>
       </c>
       <c r="Q23">
-        <v>-0.8</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="R23">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1726.9</v>
+        <v>863.202</v>
       </c>
       <c r="U23">
-        <v>111.8</v>
+        <v>31.579000000000001</v>
       </c>
       <c r="V23">
-        <v>78.599999999999994</v>
+        <v>-10.487</v>
       </c>
       <c r="W23">
-        <v>-54.6</v>
+        <v>-23.881</v>
       </c>
       <c r="X23">
-        <v>-46.2</v>
+        <v>21.33</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>93.4</v>
+        <v>14.388</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>93.8</v>
+        <v>61.645000000000003</v>
       </c>
       <c r="D24">
-        <v>1063.3</v>
+        <v>639.90599999999995</v>
       </c>
       <c r="E24">
-        <v>399.6</v>
+        <v>327.06599999999997</v>
       </c>
       <c r="F24">
-        <v>432.8</v>
+        <v>255.06399999999999</v>
       </c>
       <c r="G24">
-        <v>1402.2</v>
+        <v>832.96400000000006</v>
       </c>
       <c r="H24">
-        <v>4644.3</v>
+        <v>2363.415</v>
       </c>
       <c r="I24">
-        <v>366.2</v>
+        <v>174.63800000000001</v>
       </c>
       <c r="J24">
-        <v>1055.2</v>
+        <v>462.95699999999999</v>
       </c>
       <c r="K24">
-        <v>513.1</v>
+        <v>151.696</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1270.7</v>
+        <v>703.37</v>
       </c>
       <c r="O24">
-        <v>2870.8</v>
+        <v>1450.0029999999999</v>
       </c>
       <c r="P24">
-        <v>1568.9</v>
+        <v>622.91300000000001</v>
       </c>
       <c r="Q24">
-        <v>19.7</v>
+        <v>42.488999999999997</v>
       </c>
       <c r="R24">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1773.5</v>
+        <v>913.41200000000003</v>
       </c>
       <c r="U24">
-        <v>131.5</v>
+        <v>74.067999999999998</v>
       </c>
       <c r="V24">
-        <v>134.1</v>
+        <v>89.14</v>
       </c>
       <c r="W24">
-        <v>-54.7</v>
+        <v>-23.829000000000001</v>
       </c>
       <c r="X24">
-        <v>30</v>
+        <v>-57.744999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA24">
-        <v>93.8</v>
+        <v>61.643999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>127.7</v>
+        <v>43.067</v>
       </c>
       <c r="D25">
-        <v>1091</v>
+        <v>663.09500000000003</v>
       </c>
       <c r="E25">
-        <v>445.3</v>
+        <v>327.822</v>
       </c>
       <c r="F25">
-        <v>453.9</v>
+        <v>271.077</v>
       </c>
       <c r="G25">
-        <v>1468</v>
+        <v>829.76300000000003</v>
       </c>
       <c r="H25">
-        <v>4716.5</v>
+        <v>2460.7179999999998</v>
       </c>
       <c r="I25">
-        <v>361</v>
+        <v>188.50899999999999</v>
       </c>
       <c r="J25">
-        <v>1057.9000000000001</v>
+        <v>566.14</v>
       </c>
       <c r="K25">
-        <v>559.29999999999995</v>
+        <v>152.29400000000001</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1341.2</v>
+        <v>689.67399999999998</v>
       </c>
       <c r="O25">
-        <v>2941.9</v>
+        <v>1540.9480000000001</v>
       </c>
       <c r="P25">
-        <v>1617.8</v>
+        <v>719.28300000000002</v>
       </c>
       <c r="Q25">
-        <v>2.7</v>
+        <v>-36.356000000000002</v>
       </c>
       <c r="R25">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1774.6</v>
+        <v>919.77</v>
       </c>
       <c r="U25">
-        <v>134.19999999999999</v>
+        <v>37.712000000000003</v>
       </c>
       <c r="V25">
-        <v>109.7</v>
+        <v>41.317</v>
       </c>
       <c r="W25">
-        <v>-54.3</v>
+        <v>-23.71</v>
       </c>
       <c r="X25">
-        <v>-76</v>
+        <v>59.02</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-10.763999999999999</v>
       </c>
       <c r="AA25">
-        <v>127.7</v>
+        <v>43.067999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>157.4</v>
+        <v>83.1</v>
       </c>
       <c r="D26">
-        <v>1227</v>
+        <v>803.69799999999998</v>
       </c>
       <c r="E26">
-        <v>465.2</v>
+        <v>379.1</v>
       </c>
       <c r="F26">
-        <v>540.29999999999995</v>
+        <v>360.97300000000001</v>
       </c>
       <c r="G26">
-        <v>1421.8</v>
+        <v>899.4</v>
       </c>
       <c r="H26">
-        <v>4635.8999999999996</v>
+        <v>2568</v>
       </c>
       <c r="I26">
-        <v>450.8</v>
+        <v>224.4</v>
       </c>
       <c r="J26">
-        <v>1054</v>
+        <v>569.6</v>
       </c>
       <c r="K26">
-        <v>390.3</v>
+        <v>80.8</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,120 +2884,120 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1422.7</v>
+        <v>780.5</v>
       </c>
       <c r="O26">
-        <v>2997.8</v>
+        <v>1631.1</v>
       </c>
       <c r="P26">
-        <v>1448.4</v>
+        <v>654.9</v>
       </c>
       <c r="Q26">
-        <v>-15.8</v>
+        <v>11.250999999999999</v>
       </c>
       <c r="R26">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="S26">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="T26">
-        <v>1638.1</v>
+        <v>936.9</v>
       </c>
       <c r="U26">
-        <v>118.4</v>
+        <v>49</v>
       </c>
       <c r="V26">
-        <v>335.7</v>
+        <v>190.83</v>
       </c>
       <c r="W26">
-        <v>-54.2</v>
+        <v>-23.58</v>
       </c>
       <c r="X26">
-        <v>-279.3</v>
+        <v>-149.80500000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="AA26">
-        <v>157.4</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>93.5</v>
+        <v>44.228000000000002</v>
       </c>
       <c r="D27">
-        <v>1043.7</v>
+        <v>652.63900000000001</v>
       </c>
       <c r="E27">
-        <v>404.4</v>
+        <v>379.78899999999999</v>
       </c>
       <c r="F27">
-        <v>413</v>
+        <v>264.75200000000001</v>
       </c>
       <c r="G27">
-        <v>1385.1</v>
+        <v>887.327</v>
       </c>
       <c r="H27">
-        <v>4751.1000000000004</v>
+        <v>2561.8939999999998</v>
       </c>
       <c r="I27">
-        <v>448.4</v>
+        <v>218.19300000000001</v>
       </c>
       <c r="J27">
-        <v>803.5</v>
+        <v>418.42599999999999</v>
       </c>
       <c r="K27">
-        <v>638.9</v>
+        <v>185.774</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-2.5</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="N27">
-        <v>1738.4</v>
+        <v>895.74099999999999</v>
       </c>
       <c r="O27">
-        <v>3019.5</v>
+        <v>1570.06</v>
       </c>
       <c r="P27">
-        <v>1695.2</v>
+        <v>755.44899999999996</v>
       </c>
       <c r="Q27">
-        <v>7.3</v>
+        <v>-10.461</v>
       </c>
       <c r="R27">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1731.6</v>
+        <v>991.83399999999995</v>
       </c>
       <c r="U27">
-        <v>125.7</v>
+        <v>38.582000000000001</v>
       </c>
       <c r="V27">
-        <v>44.3</v>
+        <v>-75.090999999999994</v>
       </c>
       <c r="W27">
-        <v>-58.9</v>
+        <v>-26.055</v>
       </c>
       <c r="X27">
-        <v>110.2</v>
+        <v>84.685000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>93.5</v>
+        <v>44.228000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>41.472000000000001</v>
       </c>
       <c r="D28">
-        <v>1114.3</v>
+        <v>687.2</v>
       </c>
       <c r="E28">
-        <v>429.7</v>
+        <v>360.93</v>
       </c>
       <c r="F28">
-        <v>444.6</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="G28">
-        <v>1425.9</v>
+        <v>888.38099999999997</v>
       </c>
       <c r="H28">
-        <v>4872.1000000000004</v>
+        <v>2584.0949999999998</v>
       </c>
       <c r="I28">
-        <v>453.1</v>
+        <v>215.60599999999999</v>
       </c>
       <c r="J28">
-        <v>804.3</v>
+        <v>415.84899999999999</v>
       </c>
       <c r="K28">
-        <v>656.2</v>
+        <v>195.714</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1801.4</v>
+        <v>895.053</v>
       </c>
       <c r="O28">
-        <v>3062.7</v>
+        <v>1575.0219999999999</v>
       </c>
       <c r="P28">
-        <v>1714.8</v>
+        <v>762.88800000000003</v>
       </c>
       <c r="Q28">
-        <v>4.3</v>
+        <v>1.861</v>
       </c>
       <c r="R28">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1809.4</v>
+        <v>1009.073</v>
       </c>
       <c r="U28">
-        <v>130</v>
+        <v>40.469000000000001</v>
       </c>
       <c r="V28">
-        <v>132.9</v>
+        <v>67.090999999999994</v>
       </c>
       <c r="W28">
-        <v>-58.5</v>
+        <v>-26.045000000000002</v>
       </c>
       <c r="X28">
-        <v>-85.6</v>
+        <v>-51.585000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>100</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>108.2</v>
+        <v>56.8</v>
       </c>
       <c r="D29">
-        <v>1185.2</v>
+        <v>716.2</v>
       </c>
       <c r="E29">
-        <v>556.20000000000005</v>
+        <v>399.85899999999998</v>
       </c>
       <c r="F29">
-        <v>490.3</v>
+        <v>285.7</v>
       </c>
       <c r="G29">
-        <v>1642.6</v>
+        <v>943.59299999999996</v>
       </c>
       <c r="H29">
-        <v>10381.700000000001</v>
+        <v>2673.3449999999998</v>
       </c>
       <c r="I29">
-        <v>516.9</v>
+        <v>209.333</v>
       </c>
       <c r="J29">
-        <v>4702.3</v>
+        <v>417.97199999999998</v>
       </c>
       <c r="K29">
-        <v>349.2</v>
+        <v>304.32499999999999</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1734.2</v>
+        <v>1003.9589999999999</v>
       </c>
       <c r="O29">
-        <v>7848.4</v>
+        <v>1694.7819999999999</v>
       </c>
       <c r="P29">
-        <v>5377</v>
+        <v>873.65800000000002</v>
       </c>
       <c r="Q29">
-        <v>36.1</v>
+        <v>5.2</v>
       </c>
       <c r="R29">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2533.3000000000002</v>
+        <v>978.56299999999999</v>
       </c>
       <c r="U29">
-        <v>166.1</v>
+        <v>45.723999999999997</v>
       </c>
       <c r="V29">
-        <v>125.8</v>
+        <v>31</v>
       </c>
       <c r="W29">
-        <v>-58.6</v>
+        <v>-26</v>
       </c>
       <c r="X29">
-        <v>4142.1000000000004</v>
+        <v>-0.6</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>108.2</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>175.7</v>
+        <v>87.6</v>
       </c>
       <c r="D30">
-        <v>1490.9</v>
+        <v>860.1</v>
       </c>
       <c r="E30">
-        <v>555.1</v>
+        <v>456.5</v>
       </c>
       <c r="F30">
-        <v>683.2</v>
+        <v>371.9</v>
       </c>
       <c r="G30">
-        <v>1617</v>
+        <v>983.1</v>
       </c>
       <c r="H30">
-        <v>10385.799999999999</v>
+        <v>2787.5</v>
       </c>
       <c r="I30">
-        <v>639.9</v>
+        <v>243.3</v>
       </c>
       <c r="J30">
-        <v>4443.8999999999996</v>
+        <v>573.5</v>
       </c>
       <c r="K30">
-        <v>257.60000000000002</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1947.3</v>
+        <v>861.3</v>
       </c>
       <c r="O30">
-        <v>7814.9</v>
+        <v>1702.4</v>
       </c>
       <c r="P30">
-        <v>5029.6000000000004</v>
+        <v>733.9</v>
       </c>
       <c r="Q30">
-        <v>20.7</v>
+        <v>0.3</v>
       </c>
       <c r="R30">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="S30">
-        <v>11700</v>
+        <v>7500</v>
       </c>
       <c r="T30">
-        <v>2570.9</v>
+        <v>1085.0999999999999</v>
       </c>
       <c r="U30">
-        <v>186.8</v>
+        <v>45.9</v>
       </c>
       <c r="V30">
-        <v>512.29999999999995</v>
+        <v>201.5</v>
       </c>
       <c r="W30">
-        <v>-61.6</v>
+        <v>-25.5</v>
       </c>
       <c r="X30">
-        <v>-410.7</v>
+        <v>-184.6</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>175.7</v>
+        <v>87.6</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>422.6</v>
+        <v>51.4</v>
       </c>
       <c r="D31">
-        <v>1215.4000000000001</v>
+        <v>724</v>
       </c>
       <c r="E31">
-        <v>502</v>
+        <v>423.76100000000002</v>
       </c>
       <c r="F31">
-        <v>460.4</v>
+        <v>286.10000000000002</v>
       </c>
       <c r="G31">
-        <v>1606</v>
+        <v>951.34400000000005</v>
       </c>
       <c r="H31">
-        <v>10363</v>
+        <v>2858.2759999999998</v>
       </c>
       <c r="I31">
-        <v>584.4</v>
+        <v>251.35599999999999</v>
       </c>
       <c r="J31">
-        <v>4378.6000000000004</v>
+        <v>676.66499999999996</v>
       </c>
       <c r="K31">
-        <v>680.7</v>
+        <v>116.994</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-29.7</v>
       </c>
       <c r="M31">
-        <v>-319.8</v>
+        <v>-150.1</v>
       </c>
       <c r="N31">
-        <v>1871.5</v>
+        <v>737.726</v>
       </c>
       <c r="O31">
-        <v>7290.6</v>
+        <v>1693.778</v>
       </c>
       <c r="P31">
-        <v>5140.6000000000004</v>
+        <v>796.52599999999995</v>
       </c>
       <c r="Q31">
-        <v>-7.2</v>
+        <v>-21.5</v>
       </c>
       <c r="R31">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3072.4</v>
+        <v>1164.498</v>
       </c>
       <c r="U31">
-        <v>179.6</v>
+        <v>24.436</v>
       </c>
       <c r="V31">
-        <v>-20.5</v>
+        <v>24.3</v>
       </c>
       <c r="W31">
-        <v>-68.2</v>
+        <v>-28.2</v>
       </c>
       <c r="X31">
-        <v>39.200000000000003</v>
+        <v>46.3</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>422.6</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43251</v>
+        <v>39599</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>123.3</v>
+        <v>53.4</v>
       </c>
       <c r="D32">
-        <v>1301.3</v>
+        <v>764.1</v>
       </c>
       <c r="E32">
-        <v>473.9</v>
+        <v>416.5</v>
       </c>
       <c r="F32">
-        <v>505.4</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="G32">
-        <v>1564.2</v>
+        <v>982.8</v>
       </c>
       <c r="H32">
-        <v>10383.799999999999</v>
+        <v>2900.4</v>
       </c>
       <c r="I32">
-        <v>624.1</v>
+        <v>260.2</v>
       </c>
       <c r="J32">
-        <v>4456.2</v>
+        <v>626.9</v>
       </c>
       <c r="K32">
-        <v>623.5</v>
+        <v>85.6</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1846.7</v>
+        <v>756.7</v>
       </c>
       <c r="O32">
-        <v>7343.5</v>
+        <v>1656.4</v>
       </c>
       <c r="P32">
-        <v>5161</v>
+        <v>763.6</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="R32">
-        <v>43251</v>
+        <v>39599</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3040.3</v>
+        <v>1244</v>
       </c>
       <c r="U32">
-        <v>202.6</v>
+        <v>47.3</v>
       </c>
       <c r="V32">
-        <v>255.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="W32">
-        <v>-68.3</v>
+        <v>-28.3</v>
       </c>
       <c r="X32">
-        <v>-200.8</v>
+        <v>-42.1</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>123.3</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>39691</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>173.5</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D33">
-        <v>1318.2</v>
+        <v>781.6</v>
       </c>
       <c r="E33">
-        <v>511.7</v>
+        <v>429.8</v>
       </c>
       <c r="F33">
-        <v>522.5</v>
+        <v>309.3</v>
       </c>
       <c r="G33">
-        <v>1474.2</v>
+        <v>980</v>
       </c>
       <c r="H33">
-        <v>10278</v>
+        <v>3430.3</v>
       </c>
       <c r="I33">
-        <v>646.29999999999995</v>
+        <v>249.2</v>
       </c>
       <c r="J33">
-        <v>4269.8</v>
+        <v>878.2</v>
       </c>
       <c r="K33">
-        <v>639.79999999999995</v>
+        <v>422.9</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1855.1</v>
+        <v>1057.0999999999999</v>
       </c>
       <c r="O33">
-        <v>7166</v>
+        <v>2215.1</v>
       </c>
       <c r="P33">
-        <v>4991.1000000000004</v>
+        <v>1351.7</v>
       </c>
       <c r="Q33">
-        <v>-129.6</v>
+        <v>-17</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>39691</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3112</v>
+        <v>1215.2</v>
       </c>
       <c r="U33">
-        <v>73</v>
+        <v>30.3</v>
       </c>
       <c r="V33">
-        <v>154.1</v>
+        <v>22.6</v>
       </c>
       <c r="W33">
-        <v>-68.400000000000006</v>
+        <v>-29</v>
       </c>
       <c r="X33">
-        <v>-231.1</v>
+        <v>577.70000000000005</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>173.5</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>39782</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>214</v>
+        <v>82.4</v>
       </c>
       <c r="D34">
-        <v>1467.9</v>
+        <v>906.9</v>
       </c>
       <c r="E34">
-        <v>518.1</v>
+        <v>380.7</v>
       </c>
       <c r="F34">
-        <v>605</v>
+        <v>398.1</v>
       </c>
       <c r="G34">
-        <v>1479.9</v>
+        <v>968.3</v>
       </c>
       <c r="H34">
-        <v>10256.4</v>
+        <v>3220.3</v>
       </c>
       <c r="I34">
-        <v>710</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="J34">
-        <v>3914.3</v>
+        <v>885.2</v>
       </c>
       <c r="K34">
-        <v>560</v>
+        <v>303.10000000000002</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,120 +3548,120 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2001.7</v>
+        <v>1034.0999999999999</v>
       </c>
       <c r="O34">
-        <v>7074.2</v>
+        <v>2165</v>
       </c>
       <c r="P34">
-        <v>4696.3999999999996</v>
+        <v>1239.2</v>
       </c>
       <c r="Q34">
-        <v>23.6</v>
+        <v>8.6</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>39782</v>
       </c>
       <c r="S34">
-        <v>11600</v>
+        <v>7500</v>
       </c>
       <c r="T34">
-        <v>3182.2</v>
+        <v>1055.3</v>
       </c>
       <c r="U34">
-        <v>96.6</v>
+        <v>38.9</v>
       </c>
       <c r="V34">
-        <v>432.2</v>
+        <v>199.3</v>
       </c>
       <c r="W34">
-        <v>-68.5</v>
+        <v>-28</v>
       </c>
       <c r="X34">
-        <v>-358.4</v>
+        <v>-148.5</v>
       </c>
       <c r="Y34">
-        <v>138.6</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>214</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43524</v>
+        <v>39872</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>148</v>
+        <v>57.7</v>
       </c>
       <c r="D35">
-        <v>1231.5</v>
+        <v>718.5</v>
       </c>
       <c r="E35">
-        <v>435.7</v>
+        <v>342</v>
       </c>
       <c r="F35">
-        <v>466.9</v>
+        <v>284.2</v>
       </c>
       <c r="G35">
-        <v>1428</v>
+        <v>921</v>
       </c>
       <c r="H35">
-        <v>10227.9</v>
+        <v>3161</v>
       </c>
       <c r="I35">
-        <v>673.8</v>
+        <v>253.1</v>
       </c>
       <c r="J35">
-        <v>4043.2</v>
+        <v>884.4</v>
       </c>
       <c r="K35">
-        <v>603.4</v>
+        <v>344.7</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-21.5</v>
+        <v>-0.1</v>
       </c>
       <c r="N35">
-        <v>1829.1</v>
+        <v>932.3</v>
       </c>
       <c r="O35">
-        <v>6885.2</v>
+        <v>2066.6</v>
       </c>
       <c r="P35">
-        <v>4736.3999999999996</v>
+        <v>1280.2</v>
       </c>
       <c r="Q35">
-        <v>5.7</v>
+        <v>-15.5</v>
       </c>
       <c r="R35">
-        <v>43524</v>
+        <v>39872</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3342.7</v>
+        <v>1094.4000000000001</v>
       </c>
       <c r="U35">
-        <v>102.3</v>
+        <v>23.4</v>
       </c>
       <c r="V35">
-        <v>103.6</v>
+        <v>-13.3</v>
       </c>
       <c r="W35">
-        <v>-75.3</v>
+        <v>-31.2</v>
       </c>
       <c r="X35">
-        <v>-79.400000000000006</v>
+        <v>14.5</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3550,42 +3670,42 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>148</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>39964</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>149.4</v>
+        <v>50.7</v>
       </c>
       <c r="D36">
-        <v>1301.9000000000001</v>
+        <v>757.3</v>
       </c>
       <c r="E36">
-        <v>429</v>
+        <v>316.8</v>
       </c>
       <c r="F36">
-        <v>508.5</v>
+        <v>302.3</v>
       </c>
       <c r="G36">
-        <v>1473.1</v>
+        <v>885.5</v>
       </c>
       <c r="H36">
-        <v>10236.700000000001</v>
+        <v>3236.1</v>
       </c>
       <c r="I36">
-        <v>706.6</v>
+        <v>239.6</v>
       </c>
       <c r="J36">
-        <v>3985.2</v>
+        <v>885.4</v>
       </c>
       <c r="K36">
-        <v>605.70000000000005</v>
+        <v>320.2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1860.1</v>
+        <v>856.7</v>
       </c>
       <c r="O36">
-        <v>6854.1</v>
+        <v>1976.7</v>
       </c>
       <c r="P36">
-        <v>4678.3999999999996</v>
+        <v>1206.4000000000001</v>
       </c>
       <c r="Q36">
-        <v>37.1</v>
+        <v>-10.5</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>39964</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3382.6</v>
+        <v>1259.4000000000001</v>
       </c>
       <c r="U36">
-        <v>139.4</v>
+        <v>12.9</v>
       </c>
       <c r="V36">
-        <v>210.6</v>
+        <v>110</v>
       </c>
       <c r="W36">
-        <v>-75.5</v>
+        <v>-31.4</v>
       </c>
       <c r="X36">
-        <v>-141.30000000000001</v>
+        <v>-102.8</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3633,42 +3753,42 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>149.4</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>40056</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>191.9</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="D37">
-        <v>1329.2</v>
+        <v>791.7</v>
       </c>
       <c r="E37">
-        <v>494.6</v>
+        <v>328.6</v>
       </c>
       <c r="F37">
-        <v>539.9</v>
+        <v>319</v>
       </c>
       <c r="G37">
-        <v>1589.4</v>
+        <v>920.4</v>
       </c>
       <c r="H37">
-        <v>10366</v>
+        <v>3306.4</v>
       </c>
       <c r="I37">
-        <v>783.1</v>
+        <v>238.5</v>
       </c>
       <c r="J37">
-        <v>3856.5</v>
+        <v>870.9</v>
       </c>
       <c r="K37">
-        <v>683.6</v>
+        <v>273.7</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,37 +3797,37 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2030.4</v>
+        <v>854.3</v>
       </c>
       <c r="O37">
-        <v>6885.4</v>
+        <v>1974.7</v>
       </c>
       <c r="P37">
-        <v>4659.3999999999996</v>
+        <v>1159.5</v>
       </c>
       <c r="Q37">
-        <v>23.5</v>
+        <v>15</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>40056</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3480.6</v>
+        <v>1331.7</v>
       </c>
       <c r="U37">
-        <v>162.9</v>
+        <v>27.9</v>
       </c>
       <c r="V37">
-        <v>180.4</v>
+        <v>98.4</v>
       </c>
       <c r="W37">
-        <v>-75.599999999999994</v>
+        <v>-31.4</v>
       </c>
       <c r="X37">
-        <v>-98.5</v>
+        <v>-71.400000000000006</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3716,42 +3836,42 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>191.9</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43799</v>
+        <v>40147</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>213.4</v>
+        <v>116.3</v>
       </c>
       <c r="D38">
-        <v>1484.8</v>
+        <v>924.6</v>
       </c>
       <c r="E38">
-        <v>502.9</v>
+        <v>365.3</v>
       </c>
       <c r="F38">
-        <v>630</v>
+        <v>424.2</v>
       </c>
       <c r="G38">
-        <v>1550.2</v>
+        <v>970.5</v>
       </c>
       <c r="H38">
-        <v>10362.1</v>
+        <v>3387.8</v>
       </c>
       <c r="I38">
-        <v>846.9</v>
+        <v>298.7</v>
       </c>
       <c r="J38">
-        <v>3494.9</v>
+        <v>875</v>
       </c>
       <c r="K38">
-        <v>600.70000000000005</v>
+        <v>101.2</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2154.4</v>
+        <v>818.2</v>
       </c>
       <c r="O38">
-        <v>6905.4</v>
+        <v>2044.3</v>
       </c>
       <c r="P38">
-        <v>4324.2</v>
+        <v>991.1</v>
       </c>
       <c r="Q38">
-        <v>-7.5</v>
+        <v>11.6</v>
       </c>
       <c r="R38">
-        <v>43799</v>
+        <v>40147</v>
       </c>
       <c r="S38">
-        <v>12400</v>
+        <v>7500</v>
       </c>
       <c r="T38">
-        <v>3456.7</v>
+        <v>1343.5</v>
       </c>
       <c r="U38">
-        <v>155.4</v>
+        <v>39.5</v>
       </c>
       <c r="V38">
-        <v>452.2</v>
+        <v>220.7</v>
       </c>
       <c r="W38">
-        <v>-75.8</v>
+        <v>-31.4</v>
       </c>
       <c r="X38">
-        <v>-406.6</v>
+        <v>-182.1</v>
       </c>
       <c r="Y38">
-        <v>130.9</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>213.4</v>
+        <v>116.3</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43890</v>
+        <v>40237</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>144.69999999999999</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="D39">
-        <v>1212</v>
+        <v>764.5</v>
       </c>
       <c r="E39">
-        <v>409.9</v>
+        <v>325.3</v>
       </c>
       <c r="F39">
-        <v>469.9</v>
+        <v>315.2</v>
       </c>
       <c r="G39">
-        <v>1524.4</v>
+        <v>901.8</v>
       </c>
       <c r="H39">
-        <v>10491.7</v>
+        <v>3245.4</v>
       </c>
       <c r="I39">
-        <v>789.4</v>
+        <v>237.2</v>
       </c>
       <c r="J39">
-        <v>3498.2</v>
+        <v>872.3</v>
       </c>
       <c r="K39">
-        <v>725</v>
+        <v>129.9</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-20.5</v>
+        <v>-0.1</v>
       </c>
       <c r="N39">
-        <v>2072.4</v>
+        <v>715.5</v>
       </c>
       <c r="O39">
-        <v>6917.1</v>
+        <v>1913.8</v>
       </c>
       <c r="P39">
-        <v>4574.8</v>
+        <v>1016.7</v>
       </c>
       <c r="Q39">
-        <v>15.4</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="R39">
-        <v>43890</v>
+        <v>40237</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3574.6</v>
+        <v>1331.6</v>
       </c>
       <c r="U39">
-        <v>170.8</v>
+        <v>21.9</v>
       </c>
       <c r="V39">
-        <v>44.8</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="W39">
-        <v>-82.4</v>
+        <v>-34.4</v>
       </c>
       <c r="X39">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="Y39">
-        <v>228.5</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>144.69999999999999</v>
+        <v>67.900000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40329</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>195.9</v>
+        <v>66.3</v>
       </c>
       <c r="D40">
-        <v>1401.1</v>
+        <v>798.3</v>
       </c>
       <c r="E40">
-        <v>494.3</v>
+        <v>310.8</v>
       </c>
       <c r="F40">
-        <v>579.5</v>
+        <v>326.7</v>
       </c>
       <c r="G40">
-        <v>1615.7</v>
+        <v>907.8</v>
       </c>
       <c r="H40">
-        <v>10576.1</v>
+        <v>3192.4</v>
       </c>
       <c r="I40">
-        <v>857.2</v>
+        <v>254.6</v>
       </c>
       <c r="J40">
-        <v>3996.4</v>
+        <v>874.6</v>
       </c>
       <c r="K40">
-        <v>84.5</v>
+        <v>129.1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1582.3</v>
+        <v>709.3</v>
       </c>
       <c r="O40">
-        <v>6913.8</v>
+        <v>1905</v>
       </c>
       <c r="P40">
-        <v>4429.2</v>
+        <v>1004.1</v>
       </c>
       <c r="Q40">
-        <v>14.2</v>
+        <v>1.2</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40329</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3662.3</v>
+        <v>1287.4000000000001</v>
       </c>
       <c r="U40">
-        <v>185</v>
+        <v>23.1</v>
       </c>
       <c r="V40">
-        <v>310.7</v>
+        <v>70.3</v>
       </c>
       <c r="W40">
-        <v>-82.5</v>
+        <v>-34.6</v>
       </c>
       <c r="X40">
-        <v>-237.6</v>
+        <v>-40.200000000000003</v>
       </c>
       <c r="Y40">
-        <v>225.2</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>195.9</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>206.1</v>
+        <v>102.3</v>
       </c>
       <c r="D41">
-        <v>1430.3</v>
+        <v>794.6</v>
       </c>
       <c r="E41">
-        <v>496.5</v>
+        <v>319.7</v>
       </c>
       <c r="F41">
-        <v>590.29999999999995</v>
+        <v>334.8</v>
       </c>
       <c r="G41">
-        <v>1759.6</v>
+        <v>955.6</v>
       </c>
       <c r="H41">
-        <v>10860.7</v>
+        <v>3264.7</v>
       </c>
       <c r="I41">
-        <v>902.8</v>
+        <v>248.9</v>
       </c>
       <c r="J41">
-        <v>3629.5</v>
+        <v>779.5</v>
       </c>
       <c r="K41">
-        <v>167.8</v>
+        <v>97.4</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1953.5</v>
+        <v>798.5</v>
       </c>
       <c r="O41">
-        <v>6914.7</v>
+        <v>1882.9</v>
       </c>
       <c r="P41">
-        <v>4313.3</v>
+        <v>977.2</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3946</v>
+        <v>1381.8</v>
       </c>
       <c r="U41">
-        <v>221</v>
+        <v>23.6</v>
       </c>
       <c r="V41">
-        <v>271.2</v>
+        <v>80</v>
       </c>
       <c r="W41">
-        <v>-82.5</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="X41">
-        <v>-202.2</v>
+        <v>-80.900000000000006</v>
       </c>
       <c r="Y41">
-        <v>218.7</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>206.1</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="D42">
+        <v>979.4</v>
+      </c>
+      <c r="E42">
+        <v>386.7</v>
+      </c>
+      <c r="F42">
+        <v>441.6</v>
+      </c>
+      <c r="G42">
+        <v>1015.9</v>
+      </c>
+      <c r="H42">
+        <v>3419.7</v>
+      </c>
+      <c r="I42">
+        <v>302.7</v>
+      </c>
+      <c r="J42">
+        <v>779.9</v>
+      </c>
+      <c r="K42">
+        <v>0.2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>834.8</v>
+      </c>
+      <c r="O42">
+        <v>1957</v>
+      </c>
+      <c r="P42">
+        <v>880.3</v>
+      </c>
+      <c r="Q42">
+        <v>27.2</v>
+      </c>
+      <c r="R42">
+        <v>40512</v>
+      </c>
+      <c r="S42">
+        <v>7500</v>
+      </c>
+      <c r="T42">
+        <v>1462.7</v>
+      </c>
+      <c r="U42">
+        <v>50.8</v>
+      </c>
+      <c r="V42">
+        <v>242.3</v>
+      </c>
+      <c r="W42">
+        <v>-34.5</v>
+      </c>
+      <c r="X42">
+        <v>-148.4</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>76.8</v>
+      </c>
+      <c r="D43">
+        <v>782.8</v>
+      </c>
+      <c r="E43">
+        <v>326.8</v>
+      </c>
+      <c r="F43">
+        <v>328.2</v>
+      </c>
+      <c r="G43">
+        <v>1015.6</v>
+      </c>
+      <c r="H43">
+        <v>3477.6</v>
+      </c>
+      <c r="I43">
+        <v>286.8</v>
+      </c>
+      <c r="J43">
+        <v>775.7</v>
+      </c>
+      <c r="K43">
+        <v>94.2</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>806.7</v>
+      </c>
+      <c r="O43">
+        <v>1901.1</v>
+      </c>
+      <c r="P43">
+        <v>970.2</v>
+      </c>
+      <c r="Q43">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40602</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1576.5</v>
+      </c>
+      <c r="U43">
+        <v>40.6</v>
+      </c>
+      <c r="V43">
+        <v>-23.1</v>
+      </c>
+      <c r="W43">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="X43">
+        <v>23.2</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D44">
+        <v>883.7</v>
+      </c>
+      <c r="E44">
+        <v>342.6</v>
+      </c>
+      <c r="F44">
+        <v>350.7</v>
+      </c>
+      <c r="G44">
+        <v>1079.5999999999999</v>
+      </c>
+      <c r="H44">
+        <v>3589.4</v>
+      </c>
+      <c r="I44">
+        <v>301.8</v>
+      </c>
+      <c r="J44">
+        <v>781.2</v>
+      </c>
+      <c r="K44">
+        <v>108.2</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>846.5</v>
+      </c>
+      <c r="O44">
+        <v>1947.3</v>
+      </c>
+      <c r="P44">
+        <v>990.6</v>
+      </c>
+      <c r="Q44">
+        <v>7.3</v>
+      </c>
+      <c r="R44">
+        <v>40694</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1642.1</v>
+      </c>
+      <c r="U44">
+        <v>47.9</v>
+      </c>
+      <c r="V44">
+        <v>59.4</v>
+      </c>
+      <c r="W44">
+        <v>-37.1</v>
+      </c>
+      <c r="X44">
+        <v>-45.6</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>92</v>
+      </c>
+      <c r="D45">
+        <v>920.4</v>
+      </c>
+      <c r="E45">
+        <v>391.7</v>
+      </c>
+      <c r="F45">
+        <v>364.5</v>
+      </c>
+      <c r="G45">
+        <v>1163.3</v>
+      </c>
+      <c r="H45">
+        <v>3714.6</v>
+      </c>
+      <c r="I45">
+        <v>303.2</v>
+      </c>
+      <c r="J45">
+        <v>1031.7</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>639.5</v>
+      </c>
+      <c r="O45">
+        <v>1994.2</v>
+      </c>
+      <c r="P45">
+        <v>1032</v>
+      </c>
+      <c r="Q45">
+        <v>4.3</v>
+      </c>
+      <c r="R45">
+        <v>40786</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1720.4</v>
+      </c>
+      <c r="U45">
+        <v>52.2</v>
+      </c>
+      <c r="V45">
+        <v>49.4</v>
+      </c>
+      <c r="W45">
+        <v>-37.1</v>
+      </c>
+      <c r="X45">
+        <v>18.5</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="D46">
+        <v>1110.7</v>
+      </c>
+      <c r="E46">
+        <v>427</v>
+      </c>
+      <c r="F46">
+        <v>479.1</v>
+      </c>
+      <c r="G46">
+        <v>1222.9000000000001</v>
+      </c>
+      <c r="H46">
+        <v>4087.8</v>
+      </c>
+      <c r="I46">
+        <v>366.6</v>
+      </c>
+      <c r="J46">
+        <v>1029.7</v>
+      </c>
+      <c r="K46">
+        <v>217</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>993.3</v>
+      </c>
+      <c r="O46">
+        <v>2469.3000000000002</v>
+      </c>
+      <c r="P46">
+        <v>1252.0999999999999</v>
+      </c>
+      <c r="Q46">
+        <v>1.7</v>
+      </c>
+      <c r="R46">
+        <v>40877</v>
+      </c>
+      <c r="S46">
+        <v>9000</v>
+      </c>
+      <c r="T46">
+        <v>1618.5</v>
+      </c>
+      <c r="U46">
+        <v>53.9</v>
+      </c>
+      <c r="V46">
+        <v>254.3</v>
+      </c>
+      <c r="W46">
+        <v>-37.1</v>
+      </c>
+      <c r="X46">
+        <v>191.7</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>131.80000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>74.5</v>
+      </c>
+      <c r="D47">
+        <v>906.7</v>
+      </c>
+      <c r="E47">
+        <v>381.1</v>
+      </c>
+      <c r="F47">
+        <v>355.3</v>
+      </c>
+      <c r="G47">
+        <v>1192.8</v>
+      </c>
+      <c r="H47">
+        <v>4079.7</v>
+      </c>
+      <c r="I47">
+        <v>342.3</v>
+      </c>
+      <c r="J47">
+        <v>1028.7</v>
+      </c>
+      <c r="K47">
+        <v>281.2</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-4.2</v>
+      </c>
+      <c r="N47">
+        <v>959.9</v>
+      </c>
+      <c r="O47">
+        <v>2387.1</v>
+      </c>
+      <c r="P47">
+        <v>1311.8</v>
+      </c>
+      <c r="Q47">
+        <v>0.5</v>
+      </c>
+      <c r="R47">
+        <v>40968</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1692.6</v>
+      </c>
+      <c r="U47">
+        <v>54.4</v>
+      </c>
+      <c r="V47">
+        <v>22.5</v>
+      </c>
+      <c r="W47">
+        <v>-41.4</v>
+      </c>
+      <c r="X47">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D48">
+        <v>984</v>
+      </c>
+      <c r="E48">
+        <v>378</v>
+      </c>
+      <c r="F48">
+        <v>388.4</v>
+      </c>
+      <c r="G48">
+        <v>1167.2</v>
+      </c>
+      <c r="H48">
+        <v>3965.7</v>
+      </c>
+      <c r="I48">
+        <v>321.89999999999998</v>
+      </c>
+      <c r="J48">
+        <v>1027.7</v>
+      </c>
+      <c r="K48">
+        <v>242.2</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>900.3</v>
+      </c>
+      <c r="O48">
+        <v>2326.8000000000002</v>
+      </c>
+      <c r="P48">
+        <v>1272.0999999999999</v>
+      </c>
+      <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="R48">
+        <v>41060</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1638.9</v>
+      </c>
+      <c r="U48">
+        <v>61.4</v>
+      </c>
+      <c r="V48">
+        <v>121.9</v>
+      </c>
+      <c r="W48">
+        <v>-41</v>
+      </c>
+      <c r="X48">
+        <v>-91</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>104.4</v>
+      </c>
+      <c r="D49">
+        <v>977.7</v>
+      </c>
+      <c r="E49">
+        <v>411.2</v>
+      </c>
+      <c r="F49">
+        <v>391.7</v>
+      </c>
+      <c r="G49">
+        <v>1219.4000000000001</v>
+      </c>
+      <c r="H49">
+        <v>4057</v>
+      </c>
+      <c r="I49">
+        <v>317.5</v>
+      </c>
+      <c r="J49">
+        <v>1026.2</v>
+      </c>
+      <c r="K49">
+        <v>229</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>902.6</v>
+      </c>
+      <c r="O49">
+        <v>2333</v>
+      </c>
+      <c r="P49">
+        <v>1257.5</v>
+      </c>
+      <c r="Q49">
+        <v>10.8</v>
+      </c>
+      <c r="R49">
+        <v>41152</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1724</v>
+      </c>
+      <c r="U49">
+        <v>72.2</v>
+      </c>
+      <c r="V49">
+        <v>111.9</v>
+      </c>
+      <c r="W49">
+        <v>-41.2</v>
+      </c>
+      <c r="X49">
+        <v>-76.7</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>148.5</v>
+      </c>
+      <c r="D50">
+        <v>1145.8</v>
+      </c>
+      <c r="E50">
+        <v>465.9</v>
+      </c>
+      <c r="F50">
+        <v>482.4</v>
+      </c>
+      <c r="G50">
+        <v>1285.4000000000001</v>
+      </c>
+      <c r="H50">
+        <v>4165.3999999999996</v>
+      </c>
+      <c r="I50">
+        <v>375.8</v>
+      </c>
+      <c r="J50">
+        <v>779.2</v>
+      </c>
+      <c r="K50">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1187.5999999999999</v>
+      </c>
+      <c r="O50">
+        <v>2465.1999999999998</v>
+      </c>
+      <c r="P50">
+        <v>1171.9000000000001</v>
+      </c>
+      <c r="Q50">
+        <v>6.8</v>
+      </c>
+      <c r="R50">
+        <v>41243</v>
+      </c>
+      <c r="S50">
+        <v>9000</v>
+      </c>
+      <c r="T50">
+        <v>1700.2</v>
+      </c>
+      <c r="U50">
+        <v>79</v>
+      </c>
+      <c r="V50">
+        <v>198.7</v>
+      </c>
+      <c r="W50">
+        <v>-41.1</v>
+      </c>
+      <c r="X50">
+        <v>-147.30000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>76</v>
+      </c>
+      <c r="D51">
+        <v>934.4</v>
+      </c>
+      <c r="E51">
+        <v>403.9</v>
+      </c>
+      <c r="F51">
+        <v>361.7</v>
+      </c>
+      <c r="G51">
+        <v>1211.5</v>
+      </c>
+      <c r="H51">
+        <v>4086.1</v>
+      </c>
+      <c r="I51">
+        <v>340.2</v>
+      </c>
+      <c r="J51">
+        <v>776</v>
+      </c>
+      <c r="K51">
+        <v>201.1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.4</v>
+      </c>
+      <c r="N51">
+        <v>1115.5</v>
+      </c>
+      <c r="O51">
+        <v>2361.3000000000002</v>
+      </c>
+      <c r="P51">
+        <v>1229.8</v>
+      </c>
+      <c r="Q51">
+        <v>-10.4</v>
+      </c>
+      <c r="R51">
+        <v>41333</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1724.8</v>
+      </c>
+      <c r="U51">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="V51">
+        <v>31.6</v>
+      </c>
+      <c r="W51">
+        <v>-45.1</v>
+      </c>
+      <c r="X51">
+        <v>-34.4</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="D52">
+        <v>1002.6</v>
+      </c>
+      <c r="E52">
+        <v>399.9</v>
+      </c>
+      <c r="F52">
+        <v>394.4</v>
+      </c>
+      <c r="G52">
+        <v>1217.5</v>
+      </c>
+      <c r="H52">
+        <v>4208.8</v>
+      </c>
+      <c r="I52">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="J52">
+        <v>774.4</v>
+      </c>
+      <c r="K52">
+        <v>299.10000000000002</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1226.2</v>
+      </c>
+      <c r="O52">
+        <v>2475.1</v>
+      </c>
+      <c r="P52">
+        <v>1326.3</v>
+      </c>
+      <c r="Q52">
+        <v>3.5</v>
+      </c>
+      <c r="R52">
+        <v>41425</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1733.7</v>
+      </c>
+      <c r="U52">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="V52">
+        <v>101.1</v>
+      </c>
+      <c r="W52">
+        <v>-45</v>
+      </c>
+      <c r="X52">
+        <v>40</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>104.4</v>
+      </c>
+      <c r="D53">
+        <v>1016.4</v>
+      </c>
+      <c r="E53">
+        <v>462.4</v>
+      </c>
+      <c r="F53">
+        <v>407.6</v>
+      </c>
+      <c r="G53">
+        <v>1370.9</v>
+      </c>
+      <c r="H53">
+        <v>4353</v>
+      </c>
+      <c r="I53">
+        <v>324.7</v>
+      </c>
+      <c r="J53">
+        <v>1018.6</v>
+      </c>
+      <c r="K53">
+        <v>107.9</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1054.3</v>
+      </c>
+      <c r="O53">
+        <v>2555.5</v>
+      </c>
+      <c r="P53">
+        <v>1378.6</v>
+      </c>
+      <c r="Q53">
+        <v>74.7</v>
+      </c>
+      <c r="R53">
+        <v>41517</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1797.5</v>
+      </c>
+      <c r="U53">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="V53">
+        <v>94.7</v>
+      </c>
+      <c r="W53">
+        <v>-44.9</v>
+      </c>
+      <c r="X53">
+        <v>13.3</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>130</v>
+      </c>
+      <c r="D54">
+        <v>1170</v>
+      </c>
+      <c r="E54">
+        <v>495.5</v>
+      </c>
+      <c r="F54">
+        <v>502.2</v>
+      </c>
+      <c r="G54">
+        <v>1370.2</v>
+      </c>
+      <c r="H54">
+        <v>4449.7</v>
+      </c>
+      <c r="I54">
+        <v>387.3</v>
+      </c>
+      <c r="J54">
+        <v>1019</v>
+      </c>
+      <c r="K54">
+        <v>211.6</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1063.0999999999999</v>
+      </c>
+      <c r="O54">
+        <v>2502</v>
+      </c>
+      <c r="P54">
+        <v>1233.0999999999999</v>
+      </c>
+      <c r="Q54">
+        <v>-83.8</v>
+      </c>
+      <c r="R54">
+        <v>41608</v>
+      </c>
+      <c r="S54">
+        <v>10000</v>
+      </c>
+      <c r="T54">
+        <v>1947.7</v>
+      </c>
+      <c r="U54">
+        <v>63</v>
+      </c>
+      <c r="V54">
+        <v>237.8</v>
+      </c>
+      <c r="W54">
+        <v>-44.9</v>
+      </c>
+      <c r="X54">
+        <v>-264.8</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>82.5</v>
+      </c>
+      <c r="D55">
+        <v>993.4</v>
+      </c>
+      <c r="E55">
+        <v>428</v>
+      </c>
+      <c r="F55">
+        <v>391.5</v>
+      </c>
+      <c r="G55">
+        <v>1340.1</v>
+      </c>
+      <c r="H55">
+        <v>4429.7</v>
+      </c>
+      <c r="I55">
+        <v>348</v>
+      </c>
+      <c r="J55">
+        <v>1016.6</v>
+      </c>
+      <c r="K55">
+        <v>280.2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.4</v>
+      </c>
+      <c r="N55">
+        <v>1012.1</v>
+      </c>
+      <c r="O55">
+        <v>2442.3000000000002</v>
+      </c>
+      <c r="P55">
+        <v>1298.5999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>26.4</v>
+      </c>
+      <c r="R55">
+        <v>41698</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1987.4</v>
+      </c>
+      <c r="U55">
+        <v>89.4</v>
+      </c>
+      <c r="V55">
+        <v>76.7</v>
+      </c>
+      <c r="W55">
+        <v>-48.6</v>
+      </c>
+      <c r="X55">
+        <v>-28.6</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>84.5</v>
+      </c>
+      <c r="D56">
+        <v>1033.4000000000001</v>
+      </c>
+      <c r="E56">
+        <v>417.1</v>
+      </c>
+      <c r="F56">
+        <v>412.5</v>
+      </c>
+      <c r="G56">
+        <v>1324.7</v>
+      </c>
+      <c r="H56">
+        <v>4409.3</v>
+      </c>
+      <c r="I56">
+        <v>335.8</v>
+      </c>
+      <c r="J56">
+        <v>1016.8</v>
+      </c>
+      <c r="K56">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1002.8</v>
+      </c>
+      <c r="O56">
+        <v>2429.4</v>
+      </c>
+      <c r="P56">
+        <v>1325.2</v>
+      </c>
+      <c r="Q56">
+        <v>-8</v>
+      </c>
+      <c r="R56">
+        <v>41790</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1979.9</v>
+      </c>
+      <c r="U56">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="V56">
+        <v>105.4</v>
+      </c>
+      <c r="W56">
+        <v>-48.1</v>
+      </c>
+      <c r="X56">
+        <v>-85.2</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>122.9</v>
+      </c>
+      <c r="D57">
+        <v>1042.8</v>
+      </c>
+      <c r="E57">
+        <v>476.8</v>
+      </c>
+      <c r="F57">
+        <v>420.1</v>
+      </c>
+      <c r="G57">
+        <v>1408.8</v>
+      </c>
+      <c r="H57">
+        <v>4472.1000000000004</v>
+      </c>
+      <c r="I57">
+        <v>338.8</v>
+      </c>
+      <c r="J57">
+        <v>1014.3</v>
+      </c>
+      <c r="K57">
+        <v>352.2</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1077.5999999999999</v>
+      </c>
+      <c r="O57">
+        <v>2502.1</v>
+      </c>
+      <c r="P57">
+        <v>1367.7</v>
+      </c>
+      <c r="Q57">
+        <v>12.4</v>
+      </c>
+      <c r="R57">
+        <v>41882</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1970</v>
+      </c>
+      <c r="U57">
+        <v>93.8</v>
+      </c>
+      <c r="V57">
+        <v>93.7</v>
+      </c>
+      <c r="W57">
+        <v>-48</v>
+      </c>
+      <c r="X57">
+        <v>-51.8</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>122.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>148</v>
+      </c>
+      <c r="D58">
+        <v>1173.5999999999999</v>
+      </c>
+      <c r="E58">
+        <v>493.6</v>
+      </c>
+      <c r="F58">
+        <v>506.1</v>
+      </c>
+      <c r="G58">
+        <v>1416.2</v>
+      </c>
+      <c r="H58">
+        <v>4414.3</v>
+      </c>
+      <c r="I58">
+        <v>372.1</v>
+      </c>
+      <c r="J58">
+        <v>1014.1</v>
+      </c>
+      <c r="K58">
+        <v>269.60000000000002</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1122</v>
+      </c>
+      <c r="O58">
+        <v>2604.9</v>
+      </c>
+      <c r="P58">
+        <v>1284.9000000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-16.5</v>
+      </c>
+      <c r="R58">
+        <v>41973</v>
+      </c>
+      <c r="S58">
+        <v>10000</v>
+      </c>
+      <c r="T58">
+        <v>1809.4</v>
+      </c>
+      <c r="U58">
+        <v>77.3</v>
+      </c>
+      <c r="V58">
+        <v>227.8</v>
+      </c>
+      <c r="W58">
+        <v>-47.7</v>
+      </c>
+      <c r="X58">
+        <v>-183.3</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>70.5</v>
+      </c>
+      <c r="D59">
+        <v>1010.4</v>
+      </c>
+      <c r="E59">
+        <v>384.1</v>
+      </c>
+      <c r="F59">
+        <v>389.7</v>
+      </c>
+      <c r="G59">
+        <v>1304.7</v>
+      </c>
+      <c r="H59">
+        <v>4197.5</v>
+      </c>
+      <c r="I59">
+        <v>334.6</v>
+      </c>
+      <c r="J59">
+        <v>806.8</v>
+      </c>
+      <c r="K59">
+        <v>310.5</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-0.2</v>
+      </c>
+      <c r="N59">
+        <v>1221</v>
+      </c>
+      <c r="O59">
+        <v>2493.6</v>
+      </c>
+      <c r="P59">
+        <v>1323</v>
+      </c>
+      <c r="Q59">
+        <v>4.5</v>
+      </c>
+      <c r="R59">
+        <v>42063</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1703.9</v>
+      </c>
+      <c r="U59">
+        <v>81.8</v>
+      </c>
+      <c r="V59">
+        <v>95.9</v>
+      </c>
+      <c r="W59">
+        <v>-51.3</v>
+      </c>
+      <c r="X59">
+        <v>-64.2</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>84.3</v>
+      </c>
+      <c r="D60">
+        <v>1024.0999999999999</v>
+      </c>
+      <c r="E60">
+        <v>390.6</v>
+      </c>
+      <c r="F60">
+        <v>404</v>
+      </c>
+      <c r="G60">
+        <v>1358.9</v>
+      </c>
+      <c r="H60">
+        <v>4378.3999999999996</v>
+      </c>
+      <c r="I60">
+        <v>337.8</v>
+      </c>
+      <c r="J60">
+        <v>807.9</v>
+      </c>
+      <c r="K60">
+        <v>416.7</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1338.8</v>
+      </c>
+      <c r="O60">
+        <v>2643.1</v>
+      </c>
+      <c r="P60">
+        <v>1430.5</v>
+      </c>
+      <c r="Q60">
+        <v>7.7</v>
+      </c>
+      <c r="R60">
+        <v>42155</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1735.3</v>
+      </c>
+      <c r="U60">
+        <v>89.5</v>
+      </c>
+      <c r="V60">
+        <v>90</v>
+      </c>
+      <c r="W60">
+        <v>-51.2</v>
+      </c>
+      <c r="X60">
+        <v>53.9</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>97.6</v>
+      </c>
+      <c r="D61">
+        <v>1059.9000000000001</v>
+      </c>
+      <c r="E61">
+        <v>422.9</v>
+      </c>
+      <c r="F61">
+        <v>425.3</v>
+      </c>
+      <c r="G61">
+        <v>1374.5</v>
+      </c>
+      <c r="H61">
+        <v>4490.7</v>
+      </c>
+      <c r="I61">
+        <v>336.1</v>
+      </c>
+      <c r="J61">
+        <v>807.2</v>
+      </c>
+      <c r="K61">
+        <v>481.2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1404.6</v>
+      </c>
+      <c r="O61">
+        <v>2728.5</v>
+      </c>
+      <c r="P61">
+        <v>1492.2</v>
+      </c>
+      <c r="Q61">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42247</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1762.2</v>
+      </c>
+      <c r="U61">
+        <v>108.4</v>
+      </c>
+      <c r="V61">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="W61">
+        <v>-51.2</v>
+      </c>
+      <c r="X61">
+        <v>23.6</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="D62">
+        <v>1201.9000000000001</v>
+      </c>
+      <c r="E62">
+        <v>455.2</v>
+      </c>
+      <c r="F62">
+        <v>522.29999999999995</v>
+      </c>
+      <c r="G62">
+        <v>1357.4</v>
+      </c>
+      <c r="H62">
+        <v>4472.6000000000004</v>
+      </c>
+      <c r="I62">
+        <v>411.9</v>
+      </c>
+      <c r="J62">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="K62">
+        <v>139.5</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1238.5999999999999</v>
+      </c>
+      <c r="O62">
+        <v>2785.7</v>
+      </c>
+      <c r="P62">
+        <v>1395</v>
+      </c>
+      <c r="Q62">
+        <v>4.2</v>
+      </c>
+      <c r="R62">
+        <v>42338</v>
+      </c>
+      <c r="S62">
+        <v>10000</v>
+      </c>
+      <c r="T62">
+        <v>1686.9</v>
+      </c>
+      <c r="U62">
+        <v>112.6</v>
+      </c>
+      <c r="V62">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="W62">
+        <v>-51.2</v>
+      </c>
+      <c r="X62">
+        <v>-212.9</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>149.19999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>93.4</v>
+      </c>
+      <c r="D63">
+        <v>1030.2</v>
+      </c>
+      <c r="E63">
+        <v>371.2</v>
+      </c>
+      <c r="F63">
+        <v>405</v>
+      </c>
+      <c r="G63">
+        <v>1306.2</v>
+      </c>
+      <c r="H63">
+        <v>4400.1000000000004</v>
+      </c>
+      <c r="I63">
+        <v>336.7</v>
+      </c>
+      <c r="J63">
+        <v>1056.3</v>
+      </c>
+      <c r="K63">
+        <v>389.6</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-201.7</v>
+      </c>
+      <c r="N63">
+        <v>1092.2</v>
+      </c>
+      <c r="O63">
+        <v>2673.2</v>
+      </c>
+      <c r="P63">
+        <v>1446.5</v>
+      </c>
+      <c r="Q63">
+        <v>-0.8</v>
+      </c>
+      <c r="R63">
+        <v>42429</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1726.9</v>
+      </c>
+      <c r="U63">
+        <v>111.8</v>
+      </c>
+      <c r="V63">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="W63">
+        <v>-54.6</v>
+      </c>
+      <c r="X63">
+        <v>-46.2</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>93.8</v>
+      </c>
+      <c r="D64">
+        <v>1063.3</v>
+      </c>
+      <c r="E64">
+        <v>399.6</v>
+      </c>
+      <c r="F64">
+        <v>432.8</v>
+      </c>
+      <c r="G64">
+        <v>1402.2</v>
+      </c>
+      <c r="H64">
+        <v>4644.3</v>
+      </c>
+      <c r="I64">
+        <v>366.2</v>
+      </c>
+      <c r="J64">
+        <v>1055.2</v>
+      </c>
+      <c r="K64">
+        <v>513.1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1270.7</v>
+      </c>
+      <c r="O64">
+        <v>2870.8</v>
+      </c>
+      <c r="P64">
+        <v>1568.9</v>
+      </c>
+      <c r="Q64">
+        <v>19.7</v>
+      </c>
+      <c r="R64">
+        <v>42521</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1773.5</v>
+      </c>
+      <c r="U64">
+        <v>131.5</v>
+      </c>
+      <c r="V64">
+        <v>134.1</v>
+      </c>
+      <c r="W64">
+        <v>-54.7</v>
+      </c>
+      <c r="X64">
+        <v>30</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>127.7</v>
+      </c>
+      <c r="D65">
+        <v>1091</v>
+      </c>
+      <c r="E65">
+        <v>445.3</v>
+      </c>
+      <c r="F65">
+        <v>453.9</v>
+      </c>
+      <c r="G65">
+        <v>1468</v>
+      </c>
+      <c r="H65">
+        <v>4716.5</v>
+      </c>
+      <c r="I65">
+        <v>361</v>
+      </c>
+      <c r="J65">
+        <v>1057.9000000000001</v>
+      </c>
+      <c r="K65">
+        <v>559.29999999999995</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1341.2</v>
+      </c>
+      <c r="O65">
+        <v>2941.9</v>
+      </c>
+      <c r="P65">
+        <v>1617.8</v>
+      </c>
+      <c r="Q65">
+        <v>2.7</v>
+      </c>
+      <c r="R65">
+        <v>42613</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1774.6</v>
+      </c>
+      <c r="U65">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="V65">
+        <v>109.7</v>
+      </c>
+      <c r="W65">
+        <v>-54.3</v>
+      </c>
+      <c r="X65">
+        <v>-76</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>127.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>157.4</v>
+      </c>
+      <c r="D66">
+        <v>1227</v>
+      </c>
+      <c r="E66">
+        <v>465.2</v>
+      </c>
+      <c r="F66">
+        <v>540.29999999999995</v>
+      </c>
+      <c r="G66">
+        <v>1421.8</v>
+      </c>
+      <c r="H66">
+        <v>4635.8999999999996</v>
+      </c>
+      <c r="I66">
+        <v>450.8</v>
+      </c>
+      <c r="J66">
+        <v>1054</v>
+      </c>
+      <c r="K66">
+        <v>390.3</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1422.7</v>
+      </c>
+      <c r="O66">
+        <v>2997.8</v>
+      </c>
+      <c r="P66">
+        <v>1448.4</v>
+      </c>
+      <c r="Q66">
+        <v>-15.8</v>
+      </c>
+      <c r="R66">
+        <v>42704</v>
+      </c>
+      <c r="S66">
+        <v>10500</v>
+      </c>
+      <c r="T66">
+        <v>1638.1</v>
+      </c>
+      <c r="U66">
+        <v>118.4</v>
+      </c>
+      <c r="V66">
+        <v>335.7</v>
+      </c>
+      <c r="W66">
+        <v>-54.2</v>
+      </c>
+      <c r="X66">
+        <v>-279.3</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>93.5</v>
+      </c>
+      <c r="D67">
+        <v>1043.7</v>
+      </c>
+      <c r="E67">
+        <v>404.4</v>
+      </c>
+      <c r="F67">
+        <v>413</v>
+      </c>
+      <c r="G67">
+        <v>1385.1</v>
+      </c>
+      <c r="H67">
+        <v>4751.1000000000004</v>
+      </c>
+      <c r="I67">
+        <v>448.4</v>
+      </c>
+      <c r="J67">
+        <v>803.5</v>
+      </c>
+      <c r="K67">
+        <v>638.9</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-2.5</v>
+      </c>
+      <c r="N67">
+        <v>1738.4</v>
+      </c>
+      <c r="O67">
+        <v>3019.5</v>
+      </c>
+      <c r="P67">
+        <v>1695.2</v>
+      </c>
+      <c r="Q67">
+        <v>7.3</v>
+      </c>
+      <c r="R67">
+        <v>42794</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1731.6</v>
+      </c>
+      <c r="U67">
+        <v>125.7</v>
+      </c>
+      <c r="V67">
+        <v>44.3</v>
+      </c>
+      <c r="W67">
+        <v>-58.9</v>
+      </c>
+      <c r="X67">
+        <v>110.2</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <v>1114.3</v>
+      </c>
+      <c r="E68">
+        <v>429.7</v>
+      </c>
+      <c r="F68">
+        <v>444.6</v>
+      </c>
+      <c r="G68">
+        <v>1425.9</v>
+      </c>
+      <c r="H68">
+        <v>4872.1000000000004</v>
+      </c>
+      <c r="I68">
+        <v>453.1</v>
+      </c>
+      <c r="J68">
+        <v>804.3</v>
+      </c>
+      <c r="K68">
+        <v>656.2</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1801.4</v>
+      </c>
+      <c r="O68">
+        <v>3062.7</v>
+      </c>
+      <c r="P68">
+        <v>1714.8</v>
+      </c>
+      <c r="Q68">
+        <v>4.3</v>
+      </c>
+      <c r="R68">
+        <v>42886</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1809.4</v>
+      </c>
+      <c r="U68">
+        <v>130</v>
+      </c>
+      <c r="V68">
+        <v>132.9</v>
+      </c>
+      <c r="W68">
+        <v>-58.5</v>
+      </c>
+      <c r="X68">
+        <v>-85.6</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>108.2</v>
+      </c>
+      <c r="D69">
+        <v>1185.2</v>
+      </c>
+      <c r="E69">
+        <v>556.20000000000005</v>
+      </c>
+      <c r="F69">
+        <v>490.3</v>
+      </c>
+      <c r="G69">
+        <v>1642.6</v>
+      </c>
+      <c r="H69">
+        <v>10381.700000000001</v>
+      </c>
+      <c r="I69">
+        <v>516.9</v>
+      </c>
+      <c r="J69">
+        <v>4702.3</v>
+      </c>
+      <c r="K69">
+        <v>349.2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1734.2</v>
+      </c>
+      <c r="O69">
+        <v>7848.4</v>
+      </c>
+      <c r="P69">
+        <v>5377</v>
+      </c>
+      <c r="Q69">
+        <v>36.1</v>
+      </c>
+      <c r="R69">
+        <v>42978</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2533.3000000000002</v>
+      </c>
+      <c r="U69">
+        <v>166.1</v>
+      </c>
+      <c r="V69">
+        <v>125.8</v>
+      </c>
+      <c r="W69">
+        <v>-58.6</v>
+      </c>
+      <c r="X69">
+        <v>4142.1000000000004</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>175.7</v>
+      </c>
+      <c r="D70">
+        <v>1490.9</v>
+      </c>
+      <c r="E70">
+        <v>555.1</v>
+      </c>
+      <c r="F70">
+        <v>683.2</v>
+      </c>
+      <c r="G70">
+        <v>1617</v>
+      </c>
+      <c r="H70">
+        <v>10385.799999999999</v>
+      </c>
+      <c r="I70">
+        <v>639.9</v>
+      </c>
+      <c r="J70">
+        <v>4443.8999999999996</v>
+      </c>
+      <c r="K70">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1947.3</v>
+      </c>
+      <c r="O70">
+        <v>7814.9</v>
+      </c>
+      <c r="P70">
+        <v>5029.6000000000004</v>
+      </c>
+      <c r="Q70">
+        <v>20.7</v>
+      </c>
+      <c r="R70">
+        <v>43069</v>
+      </c>
+      <c r="S70">
+        <v>11700</v>
+      </c>
+      <c r="T70">
+        <v>2570.9</v>
+      </c>
+      <c r="U70">
+        <v>186.8</v>
+      </c>
+      <c r="V70">
+        <v>512.29999999999995</v>
+      </c>
+      <c r="W70">
+        <v>-61.6</v>
+      </c>
+      <c r="X70">
+        <v>-410.7</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>175.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>422.6</v>
+      </c>
+      <c r="D71">
+        <v>1215.4000000000001</v>
+      </c>
+      <c r="E71">
+        <v>502</v>
+      </c>
+      <c r="F71">
+        <v>460.4</v>
+      </c>
+      <c r="G71">
+        <v>1606</v>
+      </c>
+      <c r="H71">
+        <v>10363</v>
+      </c>
+      <c r="I71">
+        <v>584.4</v>
+      </c>
+      <c r="J71">
+        <v>4378.6000000000004</v>
+      </c>
+      <c r="K71">
+        <v>680.7</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-319.8</v>
+      </c>
+      <c r="N71">
+        <v>1871.5</v>
+      </c>
+      <c r="O71">
+        <v>7290.6</v>
+      </c>
+      <c r="P71">
+        <v>5140.6000000000004</v>
+      </c>
+      <c r="Q71">
+        <v>-7.2</v>
+      </c>
+      <c r="R71">
+        <v>43159</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3072.4</v>
+      </c>
+      <c r="U71">
+        <v>179.6</v>
+      </c>
+      <c r="V71">
+        <v>-20.5</v>
+      </c>
+      <c r="W71">
+        <v>-68.2</v>
+      </c>
+      <c r="X71">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>422.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>123.3</v>
+      </c>
+      <c r="D72">
+        <v>1301.3</v>
+      </c>
+      <c r="E72">
+        <v>473.9</v>
+      </c>
+      <c r="F72">
+        <v>505.4</v>
+      </c>
+      <c r="G72">
+        <v>1564.2</v>
+      </c>
+      <c r="H72">
+        <v>10383.799999999999</v>
+      </c>
+      <c r="I72">
+        <v>624.1</v>
+      </c>
+      <c r="J72">
+        <v>4456.2</v>
+      </c>
+      <c r="K72">
+        <v>623.5</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1846.7</v>
+      </c>
+      <c r="O72">
+        <v>7343.5</v>
+      </c>
+      <c r="P72">
+        <v>5161</v>
+      </c>
+      <c r="Q72">
+        <v>23</v>
+      </c>
+      <c r="R72">
+        <v>43251</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3040.3</v>
+      </c>
+      <c r="U72">
+        <v>202.6</v>
+      </c>
+      <c r="V72">
+        <v>255.4</v>
+      </c>
+      <c r="W72">
+        <v>-68.3</v>
+      </c>
+      <c r="X72">
+        <v>-200.8</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>123.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>173.5</v>
+      </c>
+      <c r="D73">
+        <v>1318.2</v>
+      </c>
+      <c r="E73">
+        <v>511.7</v>
+      </c>
+      <c r="F73">
+        <v>522.5</v>
+      </c>
+      <c r="G73">
+        <v>1474.2</v>
+      </c>
+      <c r="H73">
+        <v>10278</v>
+      </c>
+      <c r="I73">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="J73">
+        <v>4269.8</v>
+      </c>
+      <c r="K73">
+        <v>639.79999999999995</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1855.1</v>
+      </c>
+      <c r="O73">
+        <v>7166</v>
+      </c>
+      <c r="P73">
+        <v>4991.1000000000004</v>
+      </c>
+      <c r="Q73">
+        <v>-129.6</v>
+      </c>
+      <c r="R73">
+        <v>43343</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3112</v>
+      </c>
+      <c r="U73">
+        <v>73</v>
+      </c>
+      <c r="V73">
+        <v>154.1</v>
+      </c>
+      <c r="W73">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="X73">
+        <v>-231.1</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>214</v>
+      </c>
+      <c r="D74">
+        <v>1467.9</v>
+      </c>
+      <c r="E74">
+        <v>518.1</v>
+      </c>
+      <c r="F74">
+        <v>605</v>
+      </c>
+      <c r="G74">
+        <v>1479.9</v>
+      </c>
+      <c r="H74">
+        <v>10256.4</v>
+      </c>
+      <c r="I74">
+        <v>710</v>
+      </c>
+      <c r="J74">
+        <v>3914.3</v>
+      </c>
+      <c r="K74">
+        <v>560</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2001.7</v>
+      </c>
+      <c r="O74">
+        <v>7074.2</v>
+      </c>
+      <c r="P74">
+        <v>4696.3999999999996</v>
+      </c>
+      <c r="Q74">
+        <v>23.6</v>
+      </c>
+      <c r="R74">
+        <v>43434</v>
+      </c>
+      <c r="S74">
+        <v>11600</v>
+      </c>
+      <c r="T74">
+        <v>3182.2</v>
+      </c>
+      <c r="U74">
+        <v>96.6</v>
+      </c>
+      <c r="V74">
+        <v>432.2</v>
+      </c>
+      <c r="W74">
+        <v>-68.5</v>
+      </c>
+      <c r="X74">
+        <v>-358.4</v>
+      </c>
+      <c r="Y74">
+        <v>138.6</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>148</v>
+      </c>
+      <c r="D75">
+        <v>1231.5</v>
+      </c>
+      <c r="E75">
+        <v>435.7</v>
+      </c>
+      <c r="F75">
+        <v>466.9</v>
+      </c>
+      <c r="G75">
+        <v>1428</v>
+      </c>
+      <c r="H75">
+        <v>10227.9</v>
+      </c>
+      <c r="I75">
+        <v>673.8</v>
+      </c>
+      <c r="J75">
+        <v>4043.2</v>
+      </c>
+      <c r="K75">
+        <v>603.4</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-21.5</v>
+      </c>
+      <c r="N75">
+        <v>1829.1</v>
+      </c>
+      <c r="O75">
+        <v>6885.2</v>
+      </c>
+      <c r="P75">
+        <v>4736.3999999999996</v>
+      </c>
+      <c r="Q75">
+        <v>5.7</v>
+      </c>
+      <c r="R75">
+        <v>43524</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3342.7</v>
+      </c>
+      <c r="U75">
+        <v>102.3</v>
+      </c>
+      <c r="V75">
+        <v>103.6</v>
+      </c>
+      <c r="W75">
+        <v>-75.3</v>
+      </c>
+      <c r="X75">
+        <v>-79.400000000000006</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>149.4</v>
+      </c>
+      <c r="D76">
+        <v>1301.9000000000001</v>
+      </c>
+      <c r="E76">
+        <v>429</v>
+      </c>
+      <c r="F76">
+        <v>508.5</v>
+      </c>
+      <c r="G76">
+        <v>1473.1</v>
+      </c>
+      <c r="H76">
+        <v>10236.700000000001</v>
+      </c>
+      <c r="I76">
+        <v>706.6</v>
+      </c>
+      <c r="J76">
+        <v>3985.2</v>
+      </c>
+      <c r="K76">
+        <v>605.70000000000005</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1860.1</v>
+      </c>
+      <c r="O76">
+        <v>6854.1</v>
+      </c>
+      <c r="P76">
+        <v>4678.3999999999996</v>
+      </c>
+      <c r="Q76">
+        <v>37.1</v>
+      </c>
+      <c r="R76">
+        <v>43616</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3382.6</v>
+      </c>
+      <c r="U76">
+        <v>139.4</v>
+      </c>
+      <c r="V76">
+        <v>210.6</v>
+      </c>
+      <c r="W76">
+        <v>-75.5</v>
+      </c>
+      <c r="X76">
+        <v>-141.30000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>149.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>191.9</v>
+      </c>
+      <c r="D77">
+        <v>1329.2</v>
+      </c>
+      <c r="E77">
+        <v>494.6</v>
+      </c>
+      <c r="F77">
+        <v>539.9</v>
+      </c>
+      <c r="G77">
+        <v>1589.4</v>
+      </c>
+      <c r="H77">
+        <v>10366</v>
+      </c>
+      <c r="I77">
+        <v>783.1</v>
+      </c>
+      <c r="J77">
+        <v>3856.5</v>
+      </c>
+      <c r="K77">
+        <v>683.6</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2030.4</v>
+      </c>
+      <c r="O77">
+        <v>6885.4</v>
+      </c>
+      <c r="P77">
+        <v>4659.3999999999996</v>
+      </c>
+      <c r="Q77">
+        <v>23.5</v>
+      </c>
+      <c r="R77">
+        <v>43708</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3480.6</v>
+      </c>
+      <c r="U77">
+        <v>162.9</v>
+      </c>
+      <c r="V77">
+        <v>180.4</v>
+      </c>
+      <c r="W77">
+        <v>-75.599999999999994</v>
+      </c>
+      <c r="X77">
+        <v>-98.5</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>191.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>213.4</v>
+      </c>
+      <c r="D78">
+        <v>1484.8</v>
+      </c>
+      <c r="E78">
+        <v>502.9</v>
+      </c>
+      <c r="F78">
+        <v>630</v>
+      </c>
+      <c r="G78">
+        <v>1550.2</v>
+      </c>
+      <c r="H78">
+        <v>10362.1</v>
+      </c>
+      <c r="I78">
+        <v>846.9</v>
+      </c>
+      <c r="J78">
+        <v>3494.9</v>
+      </c>
+      <c r="K78">
+        <v>600.70000000000005</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2154.4</v>
+      </c>
+      <c r="O78">
+        <v>6905.4</v>
+      </c>
+      <c r="P78">
+        <v>4324.2</v>
+      </c>
+      <c r="Q78">
+        <v>-7.5</v>
+      </c>
+      <c r="R78">
+        <v>43799</v>
+      </c>
+      <c r="S78">
+        <v>12400</v>
+      </c>
+      <c r="T78">
+        <v>3456.7</v>
+      </c>
+      <c r="U78">
+        <v>155.4</v>
+      </c>
+      <c r="V78">
+        <v>452.2</v>
+      </c>
+      <c r="W78">
+        <v>-75.8</v>
+      </c>
+      <c r="X78">
+        <v>-406.6</v>
+      </c>
+      <c r="Y78">
+        <v>130.9</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>213.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="D79">
+        <v>1212</v>
+      </c>
+      <c r="E79">
+        <v>409.9</v>
+      </c>
+      <c r="F79">
+        <v>469.9</v>
+      </c>
+      <c r="G79">
+        <v>1524.4</v>
+      </c>
+      <c r="H79">
+        <v>10491.7</v>
+      </c>
+      <c r="I79">
+        <v>789.4</v>
+      </c>
+      <c r="J79">
+        <v>3498.2</v>
+      </c>
+      <c r="K79">
+        <v>725</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-20.5</v>
+      </c>
+      <c r="N79">
+        <v>2072.4</v>
+      </c>
+      <c r="O79">
+        <v>6917.1</v>
+      </c>
+      <c r="P79">
+        <v>4574.8</v>
+      </c>
+      <c r="Q79">
+        <v>15.4</v>
+      </c>
+      <c r="R79">
+        <v>43890</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3574.6</v>
+      </c>
+      <c r="U79">
+        <v>170.8</v>
+      </c>
+      <c r="V79">
+        <v>44.8</v>
+      </c>
+      <c r="W79">
+        <v>-82.4</v>
+      </c>
+      <c r="X79">
+        <v>7.1</v>
+      </c>
+      <c r="Y79">
+        <v>228.5</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>144.69999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>195.9</v>
+      </c>
+      <c r="D80">
+        <v>1401.1</v>
+      </c>
+      <c r="E80">
+        <v>494.3</v>
+      </c>
+      <c r="F80">
+        <v>579.5</v>
+      </c>
+      <c r="G80">
+        <v>1615.7</v>
+      </c>
+      <c r="H80">
+        <v>10576.1</v>
+      </c>
+      <c r="I80">
+        <v>857.2</v>
+      </c>
+      <c r="J80">
+        <v>3996.4</v>
+      </c>
+      <c r="K80">
+        <v>84.5</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1582.3</v>
+      </c>
+      <c r="O80">
+        <v>6913.8</v>
+      </c>
+      <c r="P80">
+        <v>4429.2</v>
+      </c>
+      <c r="Q80">
+        <v>14.2</v>
+      </c>
+      <c r="R80">
+        <v>43982</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3662.3</v>
+      </c>
+      <c r="U80">
+        <v>185</v>
+      </c>
+      <c r="V80">
+        <v>310.7</v>
+      </c>
+      <c r="W80">
+        <v>-82.5</v>
+      </c>
+      <c r="X80">
+        <v>-237.6</v>
+      </c>
+      <c r="Y80">
+        <v>225.2</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>195.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>206.1</v>
+      </c>
+      <c r="D81">
+        <v>1430.3</v>
+      </c>
+      <c r="E81">
+        <v>496.5</v>
+      </c>
+      <c r="F81">
+        <v>590.29999999999995</v>
+      </c>
+      <c r="G81">
+        <v>1759.6</v>
+      </c>
+      <c r="H81">
+        <v>10860.7</v>
+      </c>
+      <c r="I81">
+        <v>902.8</v>
+      </c>
+      <c r="J81">
+        <v>3629.5</v>
+      </c>
+      <c r="K81">
+        <v>167.8</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1953.5</v>
+      </c>
+      <c r="O81">
+        <v>6914.7</v>
+      </c>
+      <c r="P81">
+        <v>4313.3</v>
+      </c>
+      <c r="Q81">
+        <v>36</v>
+      </c>
+      <c r="R81">
+        <v>44074</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3946</v>
+      </c>
+      <c r="U81">
+        <v>221</v>
+      </c>
+      <c r="V81">
+        <v>271.2</v>
+      </c>
+      <c r="W81">
+        <v>-82.5</v>
+      </c>
+      <c r="X81">
+        <v>-202.2</v>
+      </c>
+      <c r="Y81">
+        <v>218.7</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>206.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>200.7</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1557.9</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>528.5</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>660.7</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2083.6</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>12089.7</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1032.3</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3630</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>886.7</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3046.5</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>8149.7</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>5045.2</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>202.6</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44165</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>13000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3940</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>423.6</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>414.6</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-82.7</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>653.6</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>227.3</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>200.7</v>
       </c>
     </row>
